--- a/PerfectScale.xlsx
+++ b/PerfectScale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KnollElias/Documents/GitHub/SmartRisk-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C780F9-9852-AB42-BD2C-D9487623852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D448990-BA6C-1B4C-B6EB-0FB9272208E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27480" activeTab="8" xr2:uid="{15CF759D-6B53-47AC-A4FA-F1174DCAA1CB}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="32">
   <si>
     <t>Index</t>
   </si>
@@ -116,6 +116,30 @@
   </si>
   <si>
     <t>Spalte1</t>
+  </si>
+  <si>
+    <t>on average</t>
+  </si>
+  <si>
+    <t>if i win everytime</t>
+  </si>
+  <si>
+    <t>capital per position</t>
+  </si>
+  <si>
+    <t>trades a day</t>
+  </si>
+  <si>
+    <t>profit per trade</t>
+  </si>
+  <si>
+    <t>profit per day</t>
+  </si>
+  <si>
+    <t>profit per motn</t>
+  </si>
+  <si>
+    <t>profit per year</t>
   </si>
 </sst>
 </file>
@@ -12526,10 +12550,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60420A63-E466-1245-B710-6595DDE06513}">
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12625,14 +12649,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>B2</f>
+        <f t="shared" ref="B3:B11" si="2">B2</f>
         <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="2">D2-(D2/100*C3)</f>
+        <f t="shared" ref="D3:D66" si="3">D2-(D2/100*C3)</f>
         <v>99</v>
       </c>
       <c r="E3" s="1">
@@ -12644,7 +12668,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G25" si="3">G2+F3</f>
+        <f t="shared" ref="G3:G25" si="4">G2+F3</f>
         <v>20</v>
       </c>
       <c r="H3" s="1">
@@ -12652,11 +12676,11 @@
         <v>900.5</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I25" si="4">H2-H3</f>
+        <f t="shared" ref="I3:I25" si="5">H2-H3</f>
         <v>-900.5</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J25" si="5">E3-D3</f>
+        <f t="shared" ref="J3:J25" si="6">E3-D3</f>
         <v>0.5</v>
       </c>
       <c r="K3" s="1"/>
@@ -12667,14 +12691,14 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>B3</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98.01</v>
       </c>
       <c r="E4" s="1">
@@ -12686,19 +12710,19 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H25" si="6">E3-E4</f>
+        <f t="shared" ref="H4:H24" si="7">E3-E4</f>
         <v>0.4966666666666697</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>900.00333333333333</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.99333333333332519</v>
       </c>
       <c r="K4" s="1"/>
@@ -12709,14 +12733,14 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>B4</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>97.029900000000012</v>
       </c>
       <c r="E5" s="1">
@@ -12728,19 +12752,19 @@
         <v>10</v>
       </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.49335833333331891</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.3083333333507881E-3</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4800749999999994</v>
       </c>
       <c r="K5" s="1"/>
@@ -12751,14 +12775,14 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>B5</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96.059601000000015</v>
       </c>
       <c r="E6" s="1">
@@ -12770,19 +12794,19 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.49007480000000214</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2835333333167682E-3</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.9602991999999944</v>
       </c>
       <c r="K6" s="1"/>
@@ -12793,14 +12817,14 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>B6</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>95.099004990000012</v>
       </c>
       <c r="E7" s="1">
@@ -12812,19 +12836,19 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48681586833333768</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2589316666644663E-3</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.43407934166666</v>
       </c>
       <c r="K7" s="1"/>
@@ -12835,14 +12859,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>B7</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>94.148014940100012</v>
       </c>
       <c r="E8" s="1">
@@ -12854,19 +12878,19 @@
         <v>10</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48358134165236777</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2345266809699069E-3</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.9014880499142919</v>
       </c>
       <c r="K8" s="1"/>
@@ -12877,14 +12901,14 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>B8</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>93.20653479069901</v>
       </c>
       <c r="E9" s="1">
@@ -12896,19 +12920,19 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.48037102491440464</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2103167379631259E-3</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3625971744008893</v>
       </c>
       <c r="K9" s="1"/>
@@ -12919,14 +12943,14 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>B9</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92.274469442792025</v>
       </c>
       <c r="E10" s="1">
@@ -12938,19 +12962,19 @@
         <v>10</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.47718472470089068</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1863002135139595E-3</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.8174777976069834</v>
       </c>
       <c r="K10" s="1"/>
@@ -12961,14 +12985,14 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>B10</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.351724748364106</v>
       </c>
       <c r="E11" s="1">
@@ -12980,19 +13004,19 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.47402224920348601</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1624754974046709E-3</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.2662002428314167</v>
       </c>
       <c r="K11" s="1"/>
@@ -13010,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90.438207500880466</v>
       </c>
       <c r="E12" s="1">
@@ -13022,19 +13046,19 @@
         <v>20</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86328624838584744</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.38926399918236143</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.3164312419292088</v>
       </c>
       <c r="K12" s="1"/>
@@ -13045,14 +13069,14 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B76" si="7">B3*2</f>
+        <f t="shared" ref="B13:B31" si="8">B3*2</f>
         <v>20</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89.533825425871655</v>
       </c>
       <c r="E13" s="1">
@@ -13064,19 +13088,19 @@
         <v>20</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.7458304738482866</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11745577453756084</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.4749828430897338</v>
       </c>
       <c r="K13" s="1"/>
@@ -13087,14 +13111,14 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>88.638487171612937</v>
       </c>
       <c r="E14" s="1">
@@ -13106,19 +13130,19 @@
         <v>20</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>160</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.67129013716855468</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.4540336679731922E-2</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.699030960179897</v>
       </c>
       <c r="K14" s="1"/>
@@ -13129,14 +13153,14 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87.752102299896805</v>
       </c>
       <c r="E15" s="1">
@@ -13148,19 +13172,19 @@
         <v>20</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>180</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.62060175909955717</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0688378068997508E-2</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9648140727964716</v>
       </c>
       <c r="K15" s="1"/>
@@ -13171,14 +13195,14 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.874581276897842</v>
       </c>
       <c r="E16" s="1">
@@ -13190,19 +13214,19 @@
         <v>20</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.58423350957954767</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6368249520009499E-2</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.2581015862158864</v>
       </c>
       <c r="K16" s="1"/>
@@ -13213,14 +13237,14 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>86.005835464128864</v>
       </c>
       <c r="E17" s="1">
@@ -13232,19 +13256,19 @@
         <v>20</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>220</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.55698612718045126</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7247382399096409E-2</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5698612718044131</v>
       </c>
       <c r="K17" s="1"/>
@@ -13255,14 +13279,14 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>85.145777109487582</v>
       </c>
       <c r="E18" s="1">
@@ -13274,19 +13298,19 @@
         <v>20</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>240</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.53582663553713417</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1159491643317097E-2</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.8940929909085611</v>
       </c>
       <c r="K18" s="1"/>
@@ -13297,14 +13321,14 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>84.294319338392711</v>
       </c>
       <c r="E19" s="1">
@@ -13316,19 +13340,19 @@
         <v>20</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.51888852015412112</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6938115383013042E-2</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.2266622418493114</v>
       </c>
       <c r="K19" s="1"/>
@@ -13339,14 +13363,14 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.45137614500878</v>
       </c>
       <c r="E20" s="1">
@@ -13358,19 +13382,19 @@
         <v>20</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.50497181680236736</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3916703351753767E-2</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.5646336184308751</v>
       </c>
       <c r="K20" s="1"/>
@@ -13381,14 +13405,14 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82.616862383558697</v>
       </c>
       <c r="E21" s="1">
@@ -13400,19 +13424,19 @@
         <v>20</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.4932764919920487</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1695324810318652E-2</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9058708878889092</v>
       </c>
       <c r="K21" s="1"/>
@@ -13423,14 +13447,14 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81.790693759723112</v>
       </c>
       <c r="E22" s="1">
@@ -13442,19 +13466,19 @@
         <v>40</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>340</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90965170726170186</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.41637521526965315</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8223878044627924</v>
       </c>
       <c r="K22" s="1"/>
@@ -13465,14 +13489,14 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80.972786822125883</v>
       </c>
       <c r="E23" s="1">
@@ -13484,19 +13508,19 @@
         <v>40</v>
       </c>
       <c r="G23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>380</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.80424155179581192</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10541015546588994</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8360531902642094</v>
       </c>
       <c r="K23" s="1"/>
@@ -13507,14 +13531,14 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80.163058953904624</v>
       </c>
       <c r="E24" s="1">
@@ -13526,19 +13550,19 @@
         <v>40</v>
       </c>
       <c r="G24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>420</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.72816962461763524</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.6071927178176679E-2</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.9176114338678332</v>
       </c>
       <c r="K24" s="1"/>
@@ -13549,14 +13573,14 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79.36142836436558</v>
       </c>
       <c r="E25" s="1">
@@ -13568,7 +13592,7 @@
         <v>40</v>
       </c>
       <c r="G25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>460</v>
       </c>
       <c r="H25" s="1">
@@ -13576,11 +13600,11 @@
         <v>0.67123843681800111</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.6931187799634131E-2</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.0480035865888766</v>
       </c>
       <c r="K25" s="1"/>
@@ -13591,22 +13615,22 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78.567814080721931</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F89" si="8">B26</f>
+        <f t="shared" ref="F26:F89" si="9">B26</f>
         <v>40</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26:G89" si="9">G25+F26</f>
+        <f t="shared" ref="G26:G89" si="10">G25+F26</f>
         <v>500</v>
       </c>
     </row>
@@ -13616,22 +13640,22 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>77.78213593991471</v>
-      </c>
-      <c r="F27">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="3"/>
+        <v>77.78213593991471</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
       <c r="G27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>540</v>
       </c>
     </row>
@@ -13641,22 +13665,22 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>77.004314580515569</v>
-      </c>
-      <c r="F28">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="3"/>
+        <v>77.004314580515569</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
       <c r="G28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>580</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -13669,22 +13693,22 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f t="shared" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="2"/>
-        <v>76.234271434710408</v>
-      </c>
-      <c r="F29">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="3"/>
+        <v>76.234271434710408</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
       <c r="G29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>620</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -13697,53 +13721,53 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.471928720363309</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
       <c r="F30">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="10"/>
+        <v>660</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="G30">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>74.717209433159681</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="9"/>
-        <v>660</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="7"/>
         <v>40</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>74.717209433159681</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
       <c r="G31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
     </row>
@@ -13760,15 +13784,15 @@
         <v>1</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73.970037338828078</v>
       </c>
       <c r="F32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>720</v>
       </c>
     </row>
@@ -13778,22 +13802,22 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B96" si="10">B3*2</f>
+        <f t="shared" ref="B33:B91" si="11">B3*2</f>
         <v>20</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73.230336965439804</v>
       </c>
       <c r="F33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="G33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>740</v>
       </c>
     </row>
@@ -13803,22 +13827,22 @@
         <v>33</v>
       </c>
       <c r="B34">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="3"/>
+        <v>72.498033595785401</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G34">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="2"/>
-        <v>72.498033595785401</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="9"/>
         <v>760</v>
       </c>
     </row>
@@ -13828,22 +13852,22 @@
         <v>34</v>
       </c>
       <c r="B35">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="3"/>
+        <v>71.773053259827549</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="2"/>
-        <v>71.773053259827549</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="9"/>
         <v>780</v>
       </c>
     </row>
@@ -13853,22 +13877,22 @@
         <v>35</v>
       </c>
       <c r="B36">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="3"/>
+        <v>71.055322727229267</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G36">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="2"/>
-        <v>71.055322727229267</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
         <v>800</v>
       </c>
     </row>
@@ -13878,22 +13902,22 @@
         <v>36</v>
       </c>
       <c r="B37">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="3"/>
+        <v>70.344769499956968</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G37">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="2"/>
-        <v>70.344769499956968</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="9"/>
         <v>820</v>
       </c>
     </row>
@@ -13903,22 +13927,22 @@
         <v>37</v>
       </c>
       <c r="B38">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="3"/>
+        <v>69.6413218049574</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="2"/>
-        <v>69.6413218049574</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="9"/>
         <v>840</v>
       </c>
     </row>
@@ -13928,22 +13952,22 @@
         <v>38</v>
       </c>
       <c r="B39">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="3"/>
+        <v>68.944908586907829</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G39">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="2"/>
-        <v>68.944908586907829</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="9"/>
         <v>860</v>
       </c>
     </row>
@@ -13953,22 +13977,22 @@
         <v>39</v>
       </c>
       <c r="B40">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="3"/>
+        <v>68.255459501038757</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G40">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="2"/>
-        <v>68.255459501038757</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="9"/>
         <v>880</v>
       </c>
     </row>
@@ -13978,22 +14002,22 @@
         <v>40</v>
       </c>
       <c r="B41">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="3"/>
+        <v>67.57290490602837</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="2"/>
-        <v>67.57290490602837</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="9"/>
         <v>900</v>
       </c>
     </row>
@@ -14003,22 +14027,22 @@
         <v>41</v>
       </c>
       <c r="B42">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="3"/>
+        <v>66.89717585696809</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G42">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="2"/>
-        <v>66.89717585696809</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="9"/>
         <v>940</v>
       </c>
     </row>
@@ -14028,22 +14052,22 @@
         <v>42</v>
       </c>
       <c r="B43">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="3"/>
+        <v>66.228204098398407</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G43">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="2"/>
-        <v>66.228204098398407</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="9"/>
         <v>980</v>
       </c>
     </row>
@@ -14053,22 +14077,22 @@
         <v>43</v>
       </c>
       <c r="B44">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="3"/>
+        <v>65.565922057414426</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G44">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="2"/>
-        <v>65.565922057414426</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="9"/>
         <v>1020</v>
       </c>
     </row>
@@ -14078,22 +14102,22 @@
         <v>44</v>
       </c>
       <c r="B45">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="3"/>
+        <v>64.910262836840275</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G45">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="2"/>
-        <v>64.910262836840275</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="9"/>
         <v>1060</v>
       </c>
     </row>
@@ -14103,22 +14127,22 @@
         <v>45</v>
       </c>
       <c r="B46">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="3"/>
+        <v>64.261160208471878</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G46">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="2"/>
-        <v>64.261160208471878</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="9"/>
         <v>1100</v>
       </c>
     </row>
@@ -14128,22 +14152,22 @@
         <v>46</v>
       </c>
       <c r="B47">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="3"/>
+        <v>63.618548606387158</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G47">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="2"/>
-        <v>63.618548606387158</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="9"/>
         <v>1140</v>
       </c>
     </row>
@@ -14153,22 +14177,22 @@
         <v>47</v>
       </c>
       <c r="B48">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="3"/>
+        <v>62.982363120323285</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G48">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="2"/>
-        <v>62.982363120323285</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="9"/>
         <v>1180</v>
       </c>
     </row>
@@ -14178,22 +14202,22 @@
         <v>48</v>
       </c>
       <c r="B49">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="3"/>
+        <v>62.352539489120055</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G49">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="2"/>
-        <v>62.352539489120055</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="9"/>
         <v>1220</v>
       </c>
     </row>
@@ -14203,22 +14227,22 @@
         <v>49</v>
       </c>
       <c r="B50">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="3"/>
+        <v>61.729014094228852</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="2"/>
-        <v>61.729014094228852</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="9"/>
         <v>1260</v>
       </c>
     </row>
@@ -14228,22 +14252,22 @@
         <v>50</v>
       </c>
       <c r="B51">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="3"/>
+        <v>61.111723953286564</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="2"/>
-        <v>61.111723953286564</v>
-      </c>
-      <c r="F51">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="9"/>
         <v>1300</v>
       </c>
     </row>
@@ -14253,22 +14277,22 @@
         <v>51</v>
       </c>
       <c r="B52">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="3"/>
+        <v>60.500606713753697</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G52">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="2"/>
-        <v>60.500606713753697</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="9"/>
         <v>1380</v>
       </c>
     </row>
@@ -14278,22 +14302,22 @@
         <v>52</v>
       </c>
       <c r="B53">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="3"/>
+        <v>59.89560064661616</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G53">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="2"/>
-        <v>59.89560064661616</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="9"/>
         <v>1460</v>
       </c>
     </row>
@@ -14303,22 +14327,22 @@
         <v>53</v>
       </c>
       <c r="B54">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="3"/>
+        <v>59.296644640149999</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G54">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="2"/>
-        <v>59.296644640149999</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="9"/>
         <v>1540</v>
       </c>
     </row>
@@ -14328,22 +14352,22 @@
         <v>54</v>
       </c>
       <c r="B55">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="3"/>
+        <v>58.703678193748502</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G55">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="2"/>
-        <v>58.703678193748502</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="9"/>
         <v>1620</v>
       </c>
     </row>
@@ -14353,22 +14377,22 @@
         <v>55</v>
       </c>
       <c r="B56">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="3"/>
+        <v>58.116641411811017</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G56">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="2"/>
-        <v>58.116641411811017</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="9"/>
         <v>1700</v>
       </c>
     </row>
@@ -14378,22 +14402,22 @@
         <v>56</v>
       </c>
       <c r="B57">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="3"/>
+        <v>57.535474997692909</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G57">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="2"/>
-        <v>57.535474997692909</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="9"/>
         <v>1780</v>
       </c>
     </row>
@@ -14403,22 +14427,22 @@
         <v>57</v>
       </c>
       <c r="B58">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="3"/>
+        <v>56.960120247715977</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G58">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="2"/>
-        <v>56.960120247715977</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="9"/>
         <v>1860</v>
       </c>
     </row>
@@ -14428,22 +14452,22 @@
         <v>58</v>
       </c>
       <c r="B59">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="3"/>
+        <v>56.390519045238818</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G59">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="2"/>
-        <v>56.390519045238818</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="9"/>
         <v>1940</v>
       </c>
     </row>
@@ -14453,22 +14477,22 @@
         <v>59</v>
       </c>
       <c r="B60">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="3"/>
+        <v>55.82661385478643</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G60">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="2"/>
-        <v>55.82661385478643</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="9"/>
         <v>2020</v>
       </c>
     </row>
@@ -14478,22 +14502,22 @@
         <v>60</v>
       </c>
       <c r="B61">
+        <f t="shared" si="11"/>
+        <v>80</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="3"/>
+        <v>55.268347716238566</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G61">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="2"/>
-        <v>55.268347716238566</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="9"/>
         <v>2100</v>
       </c>
     </row>
@@ -14503,22 +14527,22 @@
         <v>61</v>
       </c>
       <c r="B62">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="3"/>
+        <v>54.715664239076183</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G62">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="2"/>
-        <v>54.715664239076183</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="9"/>
         <v>2140</v>
       </c>
     </row>
@@ -14528,22 +14552,22 @@
         <v>62</v>
       </c>
       <c r="B63">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="3"/>
+        <v>54.168507596685423</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="2"/>
-        <v>54.168507596685423</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="9"/>
         <v>2180</v>
       </c>
     </row>
@@ -14553,22 +14577,22 @@
         <v>63</v>
       </c>
       <c r="B64">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="3"/>
+        <v>53.626822520718569</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="2"/>
-        <v>53.626822520718569</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="9"/>
         <v>2220</v>
       </c>
     </row>
@@ -14578,22 +14602,22 @@
         <v>64</v>
       </c>
       <c r="B65">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="3"/>
+        <v>53.090554295511382</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="2"/>
-        <v>53.090554295511382</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="9"/>
         <v>2260</v>
       </c>
     </row>
@@ -14603,647 +14627,647 @@
         <v>65</v>
       </c>
       <c r="B66">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="3"/>
+        <v>52.559648752556271</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="2"/>
-        <v>52.559648752556271</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="9"/>
         <v>2300</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67">
-        <f t="shared" ref="A67:A101" si="11">A66+1</f>
+        <f t="shared" ref="A67:A91" si="12">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:D91" si="13">D66-(D66/100*C67)</f>
+        <v>52.034052265030709</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G67">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" ref="D67:D91" si="12">D66-(D66/100*C67)</f>
-        <v>52.034052265030709</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="9"/>
         <v>2340</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
         <f t="shared" si="11"/>
-        <v>67</v>
-      </c>
-      <c r="B68">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="13"/>
+        <v>51.513711742380401</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="12"/>
-        <v>51.513711742380401</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="9"/>
         <v>2380</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="11"/>
-        <v>68</v>
-      </c>
-      <c r="B69">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="13"/>
+        <v>50.998574624956596</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <f t="shared" si="12"/>
-        <v>50.998574624956596</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="9"/>
         <v>2420</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="11"/>
-        <v>69</v>
-      </c>
-      <c r="B70">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="13"/>
+        <v>50.488588878707027</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="12"/>
-        <v>50.488588878707027</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="9"/>
         <v>2460</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-      <c r="B71">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="13"/>
+        <v>49.983702989919955</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>40</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="10"/>
-        <v>40</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="12"/>
-        <v>49.983702989919955</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="9"/>
         <v>2500</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="11"/>
-        <v>71</v>
-      </c>
-      <c r="B72">
+        <v>80</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="13"/>
+        <v>49.483865960020758</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="12"/>
-        <v>49.483865960020758</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="9"/>
         <v>2580</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="B73">
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="13"/>
+        <v>48.989027300420553</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" si="12"/>
-        <v>48.989027300420553</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="9"/>
         <v>2660</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-      <c r="B74">
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="13"/>
+        <v>48.499137027416346</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="12"/>
-        <v>48.499137027416346</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="9"/>
         <v>2740</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="11"/>
-        <v>74</v>
-      </c>
-      <c r="B75">
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="13"/>
+        <v>48.01414565714218</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="12"/>
-        <v>48.01414565714218</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="9"/>
         <v>2820</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="B76">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="13"/>
+        <v>47.534004200570756</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G76">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" si="12"/>
-        <v>47.534004200570756</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="9"/>
         <v>2900</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="11"/>
-        <v>76</v>
-      </c>
-      <c r="B77">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="13"/>
+        <v>47.058664158565051</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G77">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="12"/>
-        <v>47.058664158565051</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="9"/>
         <v>2980</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="11"/>
-        <v>77</v>
-      </c>
-      <c r="B78">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="13"/>
+        <v>46.588077516979403</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G78">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="12"/>
-        <v>46.588077516979403</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="9"/>
         <v>3060</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-      <c r="B79">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="13"/>
+        <v>46.12219674180961</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G79">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="12"/>
-        <v>46.12219674180961</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="9"/>
         <v>3140</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-      <c r="B80">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="13"/>
+        <v>45.660974774391512</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G80">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="12"/>
-        <v>45.660974774391512</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="9"/>
         <v>3220</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="13"/>
+        <v>45.204365026647594</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="12"/>
-        <v>45.204365026647594</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="9"/>
         <v>3300</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="B82">
+        <v>160</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" si="13"/>
+        <v>44.752321376381119</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G82">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="12"/>
-        <v>44.752321376381119</v>
-      </c>
-      <c r="F82">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="9"/>
         <v>3460</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="B83">
+        <v>160</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="13"/>
+        <v>44.30479816261731</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G83">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="12"/>
-        <v>44.30479816261731</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="9"/>
         <v>3620</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="11"/>
-        <v>83</v>
-      </c>
-      <c r="B84">
+        <v>160</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="13"/>
+        <v>43.861750180991137</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="12"/>
-        <v>43.861750180991137</v>
-      </c>
-      <c r="F84">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="9"/>
         <v>3780</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="11"/>
-        <v>84</v>
-      </c>
-      <c r="B85">
+        <v>160</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="13"/>
+        <v>43.423132679181229</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="12"/>
-        <v>43.423132679181229</v>
-      </c>
-      <c r="F85">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="9"/>
         <v>3940</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="11"/>
-        <v>85</v>
-      </c>
-      <c r="B86">
+        <v>160</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="13"/>
+        <v>42.988901352389419</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="12"/>
-        <v>42.988901352389419</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="9"/>
         <v>4100</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="11"/>
-        <v>86</v>
-      </c>
-      <c r="B87">
+        <v>160</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="13"/>
+        <v>42.559012338865529</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="12"/>
-        <v>42.559012338865529</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="9"/>
         <v>4260</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="11"/>
-        <v>87</v>
-      </c>
-      <c r="B88">
+        <v>160</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="13"/>
+        <v>42.133422215476877</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="12"/>
-        <v>42.133422215476877</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="9"/>
         <v>4420</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="11"/>
-        <v>88</v>
-      </c>
-      <c r="B89">
+        <v>160</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="13"/>
+        <v>41.712087993322108</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="G89">
         <f t="shared" si="10"/>
-        <v>160</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="12"/>
-        <v>41.712087993322108</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="8"/>
-        <v>160</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="9"/>
         <v>4580</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
         <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.294967113388886</v>
       </c>
       <c r="F90">
-        <f t="shared" ref="F90:F91" si="13">B90</f>
+        <f t="shared" ref="F90:F91" si="14">B90</f>
         <v>160</v>
       </c>
       <c r="G90">
-        <f t="shared" ref="G90:G91" si="14">G89+F90</f>
+        <f t="shared" ref="G90:G91" si="15">G89+F90</f>
         <v>4740</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
+        <f t="shared" si="12"/>
+        <v>90</v>
+      </c>
+      <c r="B91">
         <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.882017442254998</v>
       </c>
       <c r="F91">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>160</v>
       </c>
       <c r="G91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4900</v>
       </c>
     </row>
@@ -15285,6 +15309,80 @@
       </c>
       <c r="J96" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="F97" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J97" t="s">
+        <v>30</v>
+      </c>
+      <c r="K97" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98">
+        <v>55</v>
+      </c>
+      <c r="G98">
+        <v>62.608695652199998</v>
+      </c>
+      <c r="H98" s="1">
+        <f>F98*0.002</f>
+        <v>0.11</v>
+      </c>
+      <c r="I98" s="1">
+        <f>G98*H98</f>
+        <v>6.8869565217419995</v>
+      </c>
+      <c r="J98">
+        <f>I98*30</f>
+        <v>206.60869565226</v>
+      </c>
+      <c r="K98">
+        <f>J98*12</f>
+        <v>2479.3043478271202</v>
+      </c>
+    </row>
+    <row r="99" spans="5:11" x14ac:dyDescent="0.15">
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99">
+        <v>62.608695652199998</v>
+      </c>
+      <c r="H99" s="1">
+        <f>F99*0.002</f>
+        <v>0.02</v>
+      </c>
+      <c r="I99" s="1">
+        <f>G99*H99</f>
+        <v>1.2521739130439999</v>
+      </c>
+      <c r="J99">
+        <f>I99*30</f>
+        <v>37.565217391319997</v>
+      </c>
+      <c r="K99">
+        <f>J99*12</f>
+        <v>450.78260869583994</v>
       </c>
     </row>
   </sheetData>

--- a/PerfectScale.xlsx
+++ b/PerfectScale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KnollElias/Documents/GitHub/SmartRisk-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D448990-BA6C-1B4C-B6EB-0FB9272208E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68854B-41FD-3942-9EB6-144AA35013B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27480" activeTab="8" xr2:uid="{15CF759D-6B53-47AC-A4FA-F1174DCAA1CB}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>900</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
@@ -1251,46 +1251,46 @@
                   <c:v>4.2662002428314167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3164312419292088</c:v>
+                  <c:v>4.7088340821046017</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.4749828430897338</c:v>
+                  <c:v>5.1454481440206195</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.699030960179897</c:v>
+                  <c:v>5.57611052148863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9648140727964716</c:v>
+                  <c:v>6.0008885794044176</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2581015862158864</c:v>
+                  <c:v>6.4198489622431651</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5698612718044131</c:v>
+                  <c:v>6.8330576015738842</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.8940929909085611</c:v>
+                  <c:v>7.2405797234966229</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2266622418493114</c:v>
+                  <c:v>7.642479856003078</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.5646336184308751</c:v>
+                  <c:v>8.038821836261377</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.9058708878889092</c:v>
+                  <c:v>8.4296688178258847</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.8223878044627924</c:v>
+                  <c:v>8.4143976742376907</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.8360531902642094</c:v>
+                  <c:v>8.4629458941820133</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.9176114338678332</c:v>
+                  <c:v>8.5593911652953238</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.0480035865888766</c:v>
+                  <c:v>8.6923773437747798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12552,8 +12552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60420A63-E466-1245-B710-6595DDE06513}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12606,7 +12606,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -12616,15 +12616,15 @@
       </c>
       <c r="E2" s="1">
         <f>B2*D2</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F25" si="0">B2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G2">
         <f>F2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1">
         <f>0</f>
@@ -12632,15 +12632,15 @@
       </c>
       <c r="J2" s="1">
         <f>E2-D2</f>
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="K2" s="1">
         <f>AVERAGE(J2:J25)</f>
-        <v>41.84225366125127</v>
+        <v>84.245016680902722</v>
       </c>
       <c r="L2">
         <f>(K2/SUM(C2:C25))*100</f>
-        <v>181.92284200544032</v>
+        <v>366.28268122131618</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -12649,14 +12649,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B11" si="2">B2</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D66" si="3">D2-(D2/100*C3)</f>
+        <f t="shared" ref="D3:D66" si="2">D2-(D2/100*C3)</f>
         <v>99</v>
       </c>
       <c r="E3" s="1">
@@ -12665,22 +12664,22 @@
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G25" si="4">G2+F3</f>
-        <v>20</v>
+        <f t="shared" ref="G3:G25" si="3">G2+F3</f>
+        <v>40</v>
       </c>
       <c r="H3" s="1">
         <f>E2-E3</f>
-        <v>900.5</v>
+        <v>1900.5</v>
       </c>
       <c r="I3" s="1">
-        <f t="shared" ref="I3:I25" si="5">H2-H3</f>
-        <v>-900.5</v>
+        <f t="shared" ref="I3:I25" si="4">H2-H3</f>
+        <v>-1900.5</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J25" si="6">E3-D3</f>
+        <f t="shared" ref="J3:J25" si="5">E3-D3</f>
         <v>0.5</v>
       </c>
       <c r="K3" s="1"/>
@@ -12691,14 +12690,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>98.01</v>
       </c>
       <c r="E4" s="1">
@@ -12707,22 +12705,22 @@
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H24" si="7">E3-E4</f>
+        <f t="shared" ref="H4:H24" si="6">E3-E4</f>
         <v>0.4966666666666697</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="5"/>
-        <v>900.00333333333333</v>
+        <f t="shared" si="4"/>
+        <v>1900.0033333333333</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.99333333333332519</v>
       </c>
       <c r="K4" s="1"/>
@@ -12733,14 +12731,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>97.029900000000012</v>
       </c>
       <c r="E5" s="1">
@@ -12749,22 +12746,22 @@
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.49335833333331891</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.3083333333507881E-3</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.4800749999999994</v>
       </c>
       <c r="K5" s="1"/>
@@ -12775,14 +12772,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>96.059601000000015</v>
       </c>
       <c r="E6" s="1">
@@ -12791,22 +12787,22 @@
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.49007480000000214</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2835333333167682E-3</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.9602991999999944</v>
       </c>
       <c r="K6" s="1"/>
@@ -12817,14 +12813,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>95.099004990000012</v>
       </c>
       <c r="E7" s="1">
@@ -12833,22 +12828,22 @@
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.48681586833333768</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2589316666644663E-3</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.43407934166666</v>
       </c>
       <c r="K7" s="1"/>
@@ -12859,14 +12854,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>94.148014940100012</v>
       </c>
       <c r="E8" s="1">
@@ -12875,22 +12869,22 @@
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.48358134165236777</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2345266809699069E-3</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.9014880499142919</v>
       </c>
       <c r="K8" s="1"/>
@@ -12901,14 +12895,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>93.20653479069901</v>
       </c>
       <c r="E9" s="1">
@@ -12917,22 +12910,22 @@
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>160</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.48037102491440464</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.2103167379631259E-3</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.3625971744008893</v>
       </c>
       <c r="K9" s="1"/>
@@ -12943,14 +12936,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>92.274469442792025</v>
       </c>
       <c r="E10" s="1">
@@ -12959,22 +12951,22 @@
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>180</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.47718472470089068</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.1863002135139595E-3</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.8174777976069834</v>
       </c>
       <c r="K10" s="1"/>
@@ -12985,14 +12977,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>91.351724748364106</v>
       </c>
       <c r="E11" s="1">
@@ -13001,22 +12992,22 @@
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.47402224920348601</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.1624754974046709E-3</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>4.2662002428314167</v>
       </c>
       <c r="K11" s="1"/>
@@ -13027,39 +13018,38 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>B2*2</f>
         <v>20</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90.438207500880466</v>
       </c>
       <c r="E12" s="1">
         <f>(B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G12</f>
-        <v>94.754638742809675</v>
+        <v>95.147041582985068</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>220</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="7"/>
-        <v>0.86328624838584744</v>
+        <f t="shared" si="6"/>
+        <v>0.47088340821045449</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.38926399918236143</v>
+        <f t="shared" si="4"/>
+        <v>3.138840993031522E-3</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="6"/>
-        <v>4.3164312419292088</v>
+        <f t="shared" si="5"/>
+        <v>4.7088340821046017</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -13069,39 +13059,38 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" ref="B13:B31" si="8">B3*2</f>
         <v>20</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>89.533825425871655</v>
       </c>
       <c r="E13" s="1">
         <f>(B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G13</f>
-        <v>94.008808268961388</v>
+        <v>94.679273569892274</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="7"/>
-        <v>0.7458304738482866</v>
+        <f t="shared" si="6"/>
+        <v>0.46776801309279392</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="5"/>
-        <v>0.11745577453756084</v>
+        <f t="shared" si="4"/>
+        <v>3.1153951176605688E-3</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4749828430897338</v>
+        <f t="shared" si="5"/>
+        <v>5.1454481440206195</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -13111,1139 +13100,1131 @@
         <v>13</v>
       </c>
       <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>88.638487171612937</v>
+      </c>
+      <c r="E14" s="1">
+        <f>(B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G14</f>
+        <v>94.214597693101567</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="3"/>
+        <v>260</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="6"/>
+        <v>0.46467587679070732</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0921363020866011E-3</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="5"/>
+        <v>5.57611052148863</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>87.752102299896805</v>
+      </c>
+      <c r="E15" s="1">
+        <f>(B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G15</f>
+        <v>93.752990879301223</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="3"/>
+        <v>280</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="6"/>
+        <v>0.46160681380034418</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0690629903631361E-3</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="5"/>
+        <v>6.0008885794044176</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>86.874581276897842</v>
+      </c>
+      <c r="E16" s="1">
+        <f>(B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G16</f>
+        <v>93.294430239141008</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="6"/>
+        <v>0.45856064016021492</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0461736401292683E-3</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="5"/>
+        <v>6.4198489622431651</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>86.005835464128864</v>
+      </c>
+      <c r="E17" s="1">
+        <f>(B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G17</f>
+        <v>92.838893065702749</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>320</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="6"/>
+        <v>0.45553717343825895</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0234667219559697E-3</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="5"/>
+        <v>6.8330576015738842</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>85.145777109487582</v>
+      </c>
+      <c r="E18" s="1">
+        <f>(B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G18</f>
+        <v>92.386356832984205</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="6"/>
+        <v>0.45253623271854337</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0009407197155724E-3</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="5"/>
+        <v>7.2405797234966229</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>84.294319338392711</v>
+      </c>
+      <c r="E19" s="1">
+        <f>(B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G19</f>
+        <v>91.936799194395789</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="6"/>
+        <v>0.44955763858841635</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9785941301270213E-3</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="5"/>
+        <v>7.642479856003078</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>83.45137614500878</v>
+      </c>
+      <c r="E20" s="1">
+        <f>(B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G20</f>
+        <v>91.490197981270157</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="6"/>
+        <v>0.44660121312563206</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9564254627842956E-3</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="5"/>
+        <v>8.038821836261377</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>82.616862383558697</v>
+      </c>
+      <c r="E21" s="1">
+        <f>(B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G21</f>
+        <v>91.046531201384582</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="6"/>
+        <v>0.44366677988557512</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9344332400569328E-3</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="5"/>
+        <v>8.4296688178258847</v>
+      </c>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B13:B31" si="7">B12*2</f>
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>81.790693759723112</v>
+      </c>
+      <c r="E22" s="1">
+        <f>(B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G22</f>
+        <v>90.205091433960803</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="6"/>
+        <v>0.84143976742377902</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.39777298753820389</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="5"/>
+        <v>8.4143976742376907</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>80.972786822125883</v>
+      </c>
+      <c r="E23" s="1">
+        <f>(B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G23</f>
+        <v>89.435732716307896</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="6"/>
+        <v>0.76935871765290642</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2081049770872596E-2</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>8.4629458941820133</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>80.163058953904624</v>
+      </c>
+      <c r="E24" s="1">
+        <f>(B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G24</f>
+        <v>88.722450119199948</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="3"/>
+        <v>520</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="6"/>
+        <v>0.71328259710794839</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="4"/>
+        <v>5.607612054495803E-2</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>8.5593911652953238</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>79.36142836436558</v>
+      </c>
+      <c r="E25" s="1">
+        <f>(B25*D25+B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G25</f>
+        <v>88.053805708140359</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="H25" s="1">
+        <f>E24-E25</f>
+        <v>0.66864441105958861</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4638186048359785E-2</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="5"/>
+        <v>8.6923773437747798</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>78.567814080721931</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F89" si="8">B26</f>
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26:G89" si="9">G25+F26</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>77.78213593991471</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="9"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>77.004314580515569</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="9"/>
+        <v>680</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>76.234271434710408</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>75.471928720363309</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="9"/>
+        <v>760</v>
+      </c>
+      <c r="J30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>74.717209433159681</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f>B2</f>
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>73.970037338828078</v>
+      </c>
+      <c r="F32">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="3"/>
-        <v>88.638487171612937</v>
-      </c>
-      <c r="E14" s="1">
-        <f>(B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G14</f>
-        <v>93.337518131792834</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>820</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f>B3</f>
         <v>20</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>160</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="7"/>
-        <v>0.67129013716855468</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="5"/>
-        <v>7.4540336679731922E-2</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="6"/>
-        <v>4.699030960179897</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B15">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>73.230336965439804</v>
+      </c>
+      <c r="F33">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="3"/>
-        <v>87.752102299896805</v>
-      </c>
-      <c r="E15" s="1">
-        <f>(B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G15</f>
-        <v>92.716916372693277</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f>B4</f>
         <v>20</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="7"/>
-        <v>0.62060175909955717</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="5"/>
-        <v>5.0688378068997508E-2</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="6"/>
-        <v>4.9648140727964716</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>72.498033595785401</v>
+      </c>
+      <c r="F34">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="3"/>
-        <v>86.874581276897842</v>
-      </c>
-      <c r="E16" s="1">
-        <f>(B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G16</f>
-        <v>92.132682863113729</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f>B5</f>
         <v>20</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="7"/>
-        <v>0.58423350957954767</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="5"/>
-        <v>3.6368249520009499E-2</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="6"/>
-        <v>5.2581015862158864</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B17">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>71.773053259827549</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>86.005835464128864</v>
-      </c>
-      <c r="E17" s="1">
-        <f>(B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G17</f>
-        <v>91.575696735933278</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f>B6</f>
         <v>20</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>220</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="7"/>
-        <v>0.55698612718045126</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="5"/>
-        <v>2.7247382399096409E-2</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="6"/>
-        <v>5.5698612718044131</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>71.055322727229267</v>
+      </c>
+      <c r="F36">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="3"/>
-        <v>85.145777109487582</v>
-      </c>
-      <c r="E18" s="1">
-        <f>(B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G18</f>
-        <v>91.039870100396143</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f>B7</f>
         <v>20</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>240</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="7"/>
-        <v>0.53582663553713417</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="5"/>
-        <v>2.1159491643317097E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="6"/>
-        <v>5.8940929909085611</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="B19">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>70.344769499956968</v>
+      </c>
+      <c r="F37">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>84.294319338392711</v>
-      </c>
-      <c r="E19" s="1">
-        <f>(B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G19</f>
-        <v>90.520981580242022</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f>B8</f>
         <v>20</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>260</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="7"/>
-        <v>0.51888852015412112</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="5"/>
-        <v>1.6938115383013042E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="6"/>
-        <v>6.2266622418493114</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="B20">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>69.6413218049574</v>
+      </c>
+      <c r="F38">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="3"/>
-        <v>83.45137614500878</v>
-      </c>
-      <c r="E20" s="1">
-        <f>(B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G20</f>
-        <v>90.016009763439655</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f>B9</f>
         <v>20</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
-        <v>280</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="7"/>
-        <v>0.50497181680236736</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3916703351753767E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="6"/>
-        <v>6.5646336184308751</v>
-      </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="B21">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>68.944908586907829</v>
+      </c>
+      <c r="F39">
         <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="3"/>
-        <v>82.616862383558697</v>
-      </c>
-      <c r="E21" s="1">
-        <f>(B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G21</f>
-        <v>89.522733271447606</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f>B10</f>
         <v>20</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>0.4932764919920487</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="5"/>
-        <v>1.1695324810318652E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="6"/>
-        <v>6.9058708878889092</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="B22">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>68.255459501038757</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B33:B91" si="10">B11*2</f>
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>67.57290490602837</v>
+      </c>
+      <c r="F41">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="3"/>
-        <v>81.790693759723112</v>
-      </c>
-      <c r="E22" s="1">
-        <f>(B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G22</f>
-        <v>88.613081564185904</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>340</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="7"/>
-        <v>0.90965170726170186</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="5"/>
-        <v>-0.41637521526965315</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="6"/>
-        <v>6.8223878044627924</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="B23">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>66.89717585696809</v>
+      </c>
+      <c r="F42">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="3"/>
-        <v>80.972786822125883</v>
-      </c>
-      <c r="E23" s="1">
-        <f>(B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G23</f>
-        <v>87.808840012390093</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
-        <v>380</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="7"/>
-        <v>0.80424155179581192</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="5"/>
-        <v>0.10541015546588994</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="6"/>
-        <v>6.8360531902642094</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="B24">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
+        <v>66.228204098398407</v>
+      </c>
+      <c r="F43">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="3"/>
-        <v>80.163058953904624</v>
-      </c>
-      <c r="E24" s="1">
-        <f>(B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G24</f>
-        <v>87.080670387772457</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>420</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="7"/>
-        <v>0.72816962461763524</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="5"/>
-        <v>7.6071927178176679E-2</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="6"/>
-        <v>6.9176114338678332</v>
-      </c>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="B25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="2"/>
+        <v>65.565922057414426</v>
+      </c>
+      <c r="F44">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="3"/>
-        <v>79.36142836436558</v>
-      </c>
-      <c r="E25" s="1">
-        <f>(B25*D25+B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G25</f>
-        <v>86.409431950954456</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
-        <v>460</v>
-      </c>
-      <c r="H25" s="1">
-        <f>E24-E25</f>
-        <v>0.67123843681800111</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="5"/>
-        <v>5.6931187799634131E-2</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="6"/>
-        <v>7.0480035865888766</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="B26">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="2"/>
+        <v>64.910262836840275</v>
+      </c>
+      <c r="F45">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="3"/>
-        <v>78.567814080721931</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F89" si="9">B26</f>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G26">
-        <f t="shared" ref="G26:G89" si="10">G25+F26</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A27">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="B27">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="2"/>
+        <v>64.261160208471878</v>
+      </c>
+      <c r="F46">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="3"/>
-        <v>77.78213593991471</v>
-      </c>
-      <c r="F27">
+      <c r="G46">
         <f t="shared" si="9"/>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="10"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A28">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="B28">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="2"/>
+        <v>63.618548606387158</v>
+      </c>
+      <c r="F47">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="3"/>
-        <v>77.004314580515569</v>
-      </c>
-      <c r="F28">
+      <c r="G47">
         <f t="shared" si="9"/>
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="10"/>
-        <v>580</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A29">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="B29">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="2"/>
+        <v>62.982363120323285</v>
+      </c>
+      <c r="F48">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="3"/>
-        <v>76.234271434710408</v>
-      </c>
-      <c r="F29">
+      <c r="G48">
         <f t="shared" si="9"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="10"/>
-        <v>620</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A30">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="B30">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="2"/>
+        <v>62.352539489120055</v>
+      </c>
+      <c r="F49">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="3"/>
-        <v>75.471928720363309</v>
-      </c>
-      <c r="E30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30">
+      <c r="G49">
         <f t="shared" si="9"/>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="10"/>
-        <v>660</v>
-      </c>
-      <c r="J30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A31">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="B31">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="2"/>
+        <v>61.729014094228852</v>
+      </c>
+      <c r="F50">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="3"/>
-        <v>74.717209433159681</v>
-      </c>
-      <c r="F31">
+      <c r="G50">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A32">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f>B2*2</f>
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="3"/>
-        <v>73.970037338828078</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="10"/>
-        <v>720</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" ref="B33:B91" si="11">B3*2</f>
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="3"/>
-        <v>73.230336965439804</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="10"/>
-        <v>740</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A34">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="3"/>
-        <v>72.498033595785401</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="10"/>
-        <v>760</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A35">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="3"/>
-        <v>71.773053259827549</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="10"/>
-        <v>780</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A36">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="3"/>
-        <v>71.055322727229267</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A37">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="3"/>
-        <v>70.344769499956968</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="10"/>
-        <v>820</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A38">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="3"/>
-        <v>69.6413218049574</v>
-      </c>
-      <c r="F38">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="10"/>
-        <v>840</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A39">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="3"/>
-        <v>68.944908586907829</v>
-      </c>
-      <c r="F39">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="10"/>
-        <v>860</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="3"/>
-        <v>68.255459501038757</v>
-      </c>
-      <c r="F40">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="10"/>
-        <v>880</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A41">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="3"/>
-        <v>67.57290490602837</v>
-      </c>
-      <c r="F41">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="10"/>
-        <v>900</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="3"/>
-        <v>66.89717585696809</v>
-      </c>
-      <c r="F42">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="10"/>
-        <v>940</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="3"/>
-        <v>66.228204098398407</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="10"/>
-        <v>980</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A44">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="3"/>
-        <v>65.565922057414426</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="10"/>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A45">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="3"/>
-        <v>64.910262836840275</v>
-      </c>
-      <c r="F45">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="10"/>
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="3"/>
-        <v>64.261160208471878</v>
-      </c>
-      <c r="F46">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="10"/>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A47">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="3"/>
-        <v>63.618548606387158</v>
-      </c>
-      <c r="F47">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="10"/>
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A48">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="3"/>
-        <v>62.982363120323285</v>
-      </c>
-      <c r="F48">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="10"/>
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="3"/>
-        <v>62.352539489120055</v>
-      </c>
-      <c r="F49">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="10"/>
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="3"/>
-        <v>61.729014094228852</v>
-      </c>
-      <c r="F50">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="10"/>
-        <v>1260</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
@@ -14252,23 +14233,23 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>61.111723953286564</v>
       </c>
       <c r="F51">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G51">
         <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="10"/>
-        <v>1300</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
@@ -14277,998 +14258,998 @@
         <v>51</v>
       </c>
       <c r="B52">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" si="2"/>
+        <v>60.500606713753697</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="9"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="2"/>
+        <v>59.89560064661616</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="9"/>
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="2"/>
+        <v>59.296644640149999</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="9"/>
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="2"/>
+        <v>58.703678193748502</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="9"/>
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="2"/>
+        <v>58.116641411811017</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="9"/>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="2"/>
+        <v>57.535474997692909</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="9"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="2"/>
+        <v>56.960120247715977</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="9"/>
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="2"/>
+        <v>56.390519045238818</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="9"/>
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="2"/>
+        <v>55.82661385478643</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="9"/>
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="2"/>
+        <v>55.268347716238566</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="9"/>
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="2"/>
+        <v>54.715664239076183</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="9"/>
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="2"/>
+        <v>54.168507596685423</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="9"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="2"/>
+        <v>53.626822520718569</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="9"/>
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="2"/>
+        <v>53.090554295511382</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="9"/>
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="2"/>
+        <v>52.559648752556271</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="9"/>
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <f t="shared" ref="A67:A91" si="11">A66+1</f>
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" ref="D67:D91" si="12">D66-(D66/100*C67)</f>
+        <v>52.034052265030709</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="9"/>
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="12"/>
+        <v>51.513711742380401</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <f t="shared" si="11"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="12"/>
+        <v>50.998574624956596</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <f t="shared" si="11"/>
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="12"/>
+        <v>50.488588878707027</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <f t="shared" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="12"/>
+        <v>49.983702989919955</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <f t="shared" si="11"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="12"/>
+        <v>49.483865960020758</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <f t="shared" si="11"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="12"/>
+        <v>48.989027300420553</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="9"/>
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="12"/>
+        <v>48.499137027416346</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="9"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <f t="shared" si="11"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="12"/>
+        <v>48.01414565714218</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="9"/>
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <f t="shared" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="12"/>
+        <v>47.534004200570756</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="9"/>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <f t="shared" si="11"/>
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="12"/>
+        <v>47.058664158565051</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="9"/>
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <f t="shared" si="11"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="12"/>
+        <v>46.588077516979403</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="9"/>
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="12"/>
+        <v>46.12219674180961</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="9"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <f t="shared" si="11"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="12"/>
+        <v>45.660974774391512</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="9"/>
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <f t="shared" si="3"/>
-        <v>60.500606713753697</v>
-      </c>
-      <c r="F52">
+      <c r="B81">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="12"/>
+        <v>45.204365026647594</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="G81">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="10"/>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53" s="1">
-        <f t="shared" si="3"/>
-        <v>59.89560064661616</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="10"/>
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54" s="1">
-        <f t="shared" si="3"/>
-        <v>59.296644640149999</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="10"/>
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <f t="shared" si="3"/>
-        <v>58.703678193748502</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="10"/>
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1">
-        <f t="shared" si="3"/>
-        <v>58.116641411811017</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="10"/>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="3"/>
-        <v>57.535474997692909</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="10"/>
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="3"/>
-        <v>56.960120247715977</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="10"/>
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="3"/>
-        <v>56.390519045238818</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="10"/>
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" si="3"/>
-        <v>55.82661385478643</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="10"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61" s="1">
-        <f t="shared" si="3"/>
-        <v>55.268347716238566</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="10"/>
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A62">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" si="3"/>
-        <v>54.715664239076183</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="10"/>
-        <v>2140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A63">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" s="1">
-        <f t="shared" si="3"/>
-        <v>54.168507596685423</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="10"/>
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64" s="1">
-        <f t="shared" si="3"/>
-        <v>53.626822520718569</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="10"/>
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A65">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1">
-        <f t="shared" si="3"/>
-        <v>53.090554295511382</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="10"/>
-        <v>2260</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A66">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1">
-        <f t="shared" si="3"/>
-        <v>52.559648752556271</v>
-      </c>
-      <c r="F66">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="10"/>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A67">
-        <f t="shared" ref="A67:A91" si="12">A66+1</f>
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1">
-        <f t="shared" ref="D67:D91" si="13">D66-(D66/100*C67)</f>
-        <v>52.034052265030709</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="10"/>
-        <v>2340</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A68">
-        <f t="shared" si="12"/>
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1">
-        <f t="shared" si="13"/>
-        <v>51.513711742380401</v>
-      </c>
-      <c r="F68">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="10"/>
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A69">
-        <f t="shared" si="12"/>
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" s="1">
-        <f t="shared" si="13"/>
-        <v>50.998574624956596</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="10"/>
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A70">
-        <f t="shared" si="12"/>
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1">
-        <f t="shared" si="13"/>
-        <v>50.488588878707027</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="10"/>
-        <v>2460</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A71">
-        <f t="shared" si="12"/>
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1">
-        <f t="shared" si="13"/>
-        <v>49.983702989919955</v>
-      </c>
-      <c r="F71">
-        <f t="shared" si="9"/>
-        <v>40</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="10"/>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A72">
-        <f t="shared" si="12"/>
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72" s="1">
-        <f t="shared" si="13"/>
-        <v>49.483865960020758</v>
-      </c>
-      <c r="F72">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="10"/>
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A73">
-        <f t="shared" si="12"/>
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73" s="1">
-        <f t="shared" si="13"/>
-        <v>48.989027300420553</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="10"/>
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A74">
-        <f t="shared" si="12"/>
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1">
-        <f t="shared" si="13"/>
-        <v>48.499137027416346</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="10"/>
-        <v>2740</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A75">
-        <f t="shared" si="12"/>
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75" s="1">
-        <f t="shared" si="13"/>
-        <v>48.01414565714218</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="10"/>
-        <v>2820</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A76">
-        <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" si="13"/>
-        <v>47.534004200570756</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="10"/>
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A77">
-        <f t="shared" si="12"/>
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" s="1">
-        <f t="shared" si="13"/>
-        <v>47.058664158565051</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="10"/>
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A78">
-        <f t="shared" si="12"/>
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" s="1">
-        <f t="shared" si="13"/>
-        <v>46.588077516979403</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="10"/>
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A79">
-        <f t="shared" si="12"/>
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" s="1">
-        <f t="shared" si="13"/>
-        <v>46.12219674180961</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="10"/>
-        <v>3140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A80">
-        <f t="shared" si="12"/>
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" s="1">
-        <f t="shared" si="13"/>
-        <v>45.660974774391512</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="10"/>
-        <v>3220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A81">
-        <f t="shared" si="12"/>
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="11"/>
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" s="1">
-        <f t="shared" si="13"/>
-        <v>45.204365026647594</v>
-      </c>
-      <c r="F81">
-        <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="10"/>
-        <v>3300</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
+        <f t="shared" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1">
         <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="11"/>
+        <v>44.752321376381119</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" s="1">
-        <f t="shared" si="13"/>
-        <v>44.752321376381119</v>
-      </c>
-      <c r="F82">
+      <c r="G82">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="10"/>
-        <v>3460</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
+        <f t="shared" si="11"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" s="1">
         <f t="shared" si="12"/>
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="11"/>
+        <v>44.30479816261731</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" s="1">
-        <f t="shared" si="13"/>
-        <v>44.30479816261731</v>
-      </c>
-      <c r="F83">
+      <c r="G83">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="10"/>
-        <v>3620</v>
+        <v>3780</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
+        <f t="shared" si="11"/>
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1">
         <f t="shared" si="12"/>
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="11"/>
+        <v>43.861750180991137</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" s="1">
-        <f t="shared" si="13"/>
-        <v>43.861750180991137</v>
-      </c>
-      <c r="F84">
+      <c r="G84">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="10"/>
-        <v>3780</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85">
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
         <f t="shared" si="12"/>
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="11"/>
+        <v>43.423132679181229</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85" s="1">
-        <f t="shared" si="13"/>
-        <v>43.423132679181229</v>
-      </c>
-      <c r="F85">
+      <c r="G85">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="10"/>
-        <v>3940</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86">
+        <f t="shared" si="11"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1">
         <f t="shared" si="12"/>
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="11"/>
+        <v>42.988901352389419</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-      <c r="D86" s="1">
-        <f t="shared" si="13"/>
-        <v>42.988901352389419</v>
-      </c>
-      <c r="F86">
+      <c r="G86">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="10"/>
-        <v>4100</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87">
+        <f t="shared" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
         <f t="shared" si="12"/>
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="11"/>
+        <v>42.559012338865529</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" s="1">
-        <f t="shared" si="13"/>
-        <v>42.559012338865529</v>
-      </c>
-      <c r="F87">
+      <c r="G87">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="10"/>
-        <v>4260</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88">
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1">
         <f t="shared" si="12"/>
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="11"/>
+        <v>42.133422215476877</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="13"/>
-        <v>42.133422215476877</v>
-      </c>
-      <c r="F88">
+      <c r="G88">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="10"/>
-        <v>4420</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89">
+        <f t="shared" si="11"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1">
         <f t="shared" si="12"/>
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="11"/>
+        <v>41.712087993322108</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="8"/>
         <v>160</v>
       </c>
-      <c r="C89">
-        <v>1</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="13"/>
-        <v>41.712087993322108</v>
-      </c>
-      <c r="F89">
+      <c r="G89">
         <f t="shared" si="9"/>
-        <v>160</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="10"/>
-        <v>4580</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90">
+        <f t="shared" si="11"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
         <f t="shared" si="12"/>
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="11"/>
+        <v>41.294967113388886</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:F91" si="13">B90</f>
         <v>160</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="13"/>
-        <v>41.294967113388886</v>
-      </c>
-      <c r="F90">
-        <f t="shared" ref="F90:F91" si="14">B90</f>
-        <v>160</v>
-      </c>
       <c r="G90">
-        <f t="shared" ref="G90:G91" si="15">G89+F90</f>
-        <v>4740</v>
+        <f t="shared" ref="G90:G91" si="14">G89+F90</f>
+        <v>4900</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91">
+        <f t="shared" si="11"/>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="10"/>
+        <v>160</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
         <f t="shared" si="12"/>
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="11"/>
+        <v>40.882017442254998</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="13"/>
-        <v>40.882017442254998</v>
-      </c>
-      <c r="F91">
+      <c r="G91">
         <f t="shared" si="14"/>
-        <v>160</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="15"/>
-        <v>4900</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.15">
@@ -15336,26 +15317,26 @@
         <v>24</v>
       </c>
       <c r="F98">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G98">
         <v>62.608695652199998</v>
       </c>
       <c r="H98" s="1">
-        <f>F98*0.002</f>
-        <v>0.11</v>
+        <f>F98*0.003</f>
+        <v>0.16800000000000001</v>
       </c>
       <c r="I98" s="1">
         <f>G98*H98</f>
-        <v>6.8869565217419995</v>
+        <v>10.5182608695696</v>
       </c>
       <c r="J98">
         <f>I98*30</f>
-        <v>206.60869565226</v>
+        <v>315.54782608708803</v>
       </c>
       <c r="K98">
         <f>J98*12</f>
-        <v>2479.3043478271202</v>
+        <v>3786.5739130450565</v>
       </c>
     </row>
     <row r="99" spans="5:11" x14ac:dyDescent="0.15">
@@ -15369,20 +15350,20 @@
         <v>62.608695652199998</v>
       </c>
       <c r="H99" s="1">
-        <f>F99*0.002</f>
-        <v>0.02</v>
+        <f>F99*0.003</f>
+        <v>0.03</v>
       </c>
       <c r="I99" s="1">
         <f>G99*H99</f>
-        <v>1.2521739130439999</v>
+        <v>1.8782608695659999</v>
       </c>
       <c r="J99">
         <f>I99*30</f>
-        <v>37.565217391319997</v>
+        <v>56.34782608698</v>
       </c>
       <c r="K99">
         <f>J99*12</f>
-        <v>450.78260869583994</v>
+        <v>676.17391304375997</v>
       </c>
     </row>
   </sheetData>

--- a/PerfectScale.xlsx
+++ b/PerfectScale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KnollElias/Documents/GitHub/SmartRisk-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knoleli\Documents\GitHub\SmartRisk-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA68854B-41FD-3942-9EB6-144AA35013B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C672DE3-7BFE-4229-B73D-3F0374E48CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27480" activeTab="8" xr2:uid="{15CF759D-6B53-47AC-A4FA-F1174DCAA1CB}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" firstSheet="1" activeTab="7" xr2:uid="{15CF759D-6B53-47AC-A4FA-F1174DCAA1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="SC3^2 0.74" sheetId="9" r:id="rId1"/>
@@ -906,73 +906,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3333333333333286</c:v>
+                  <c:v>4.9999999999997158E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.56714285714284074</c:v>
+                  <c:v>7.4950000000001182E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1794266666666573</c:v>
+                  <c:v>0.11650006666666002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5002045161290312</c:v>
+                  <c:v>0.12972021993998339</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6645428330158722</c:v>
+                  <c:v>0.16380058538578623</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.656115691640963</c:v>
+                  <c:v>0.31745226046344044</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.087031753563366</c:v>
+                  <c:v>0.45871667063860855</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2374504078269695</c:v>
+                  <c:v>0.53748282817274173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8784940745466088</c:v>
+                  <c:v>0.6221711697534289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4399671671359187</c:v>
+                  <c:v>0.62674217522912556</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4817532546245999</c:v>
+                  <c:v>0.66685503124945456</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2822916108977083</c:v>
+                  <c:v>2.4041474326180463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9795369973983696</c:v>
+                  <c:v>3.9845945932966771</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6412263944679566</c:v>
+                  <c:v>5.0629220408688695</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.3000191620772625</c:v>
+                  <c:v>6.075543162104168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9710931370766502</c:v>
+                  <c:v>6.3498098522668016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6609573482414248</c:v>
+                  <c:v>6.8002701200889959</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3718630084112533</c:v>
+                  <c:v>9.5077204688968209</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1040080483699271</c:v>
+                  <c:v>11.950075166908277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8566358060656256</c:v>
+                  <c:v>13.29463829687883</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6285797688397743</c:v>
+                  <c:v>14.581990018845772</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4185310892171898</c:v>
+                  <c:v>14.387369764475835</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2251675856383066</c:v>
+                  <c:v>14.602606841708123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3728,17 +3728,17 @@
       <selection activeCell="D2" sqref="D2:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>17.425122574879616</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="2">A2+1</f>
         <v>2</v>
@@ -3860,7 +3860,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -3902,7 +3902,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3944,7 +3944,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3986,7 +3986,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -4028,7 +4028,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -4070,7 +4070,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -4112,7 +4112,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4154,7 +4154,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4196,7 +4196,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4238,7 +4238,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4280,7 +4280,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4322,7 +4322,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4364,7 +4364,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4406,7 +4406,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4448,7 +4448,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4490,7 +4490,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4532,7 +4532,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4574,7 +4574,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4616,7 +4616,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -4658,7 +4658,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -4700,7 +4700,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -4742,7 +4742,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -4784,7 +4784,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26">
@@ -4814,17 +4814,17 @@
       <selection activeCell="D2" sqref="D2:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>16.59607747230805</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="2">A2+1</f>
         <v>2</v>
@@ -4946,7 +4946,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4988,7 +4988,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -5030,7 +5030,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -5072,7 +5072,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -5114,7 +5114,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -5156,7 +5156,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -5198,7 +5198,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -5241,7 +5241,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -5284,7 +5284,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5327,7 +5327,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5370,7 +5370,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -5413,7 +5413,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -5456,7 +5456,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -5499,7 +5499,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -5542,7 +5542,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -5585,7 +5585,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -5628,7 +5628,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -5671,7 +5671,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -5714,7 +5714,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -5757,7 +5757,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -5800,7 +5800,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -5843,7 +5843,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -5886,7 +5886,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26">
@@ -5916,17 +5916,17 @@
       <selection activeCell="D2" sqref="D2:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>15.475366779775362</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="2">A2+1</f>
         <v>2</v>
@@ -6048,7 +6048,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -6090,7 +6090,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -6132,7 +6132,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -6174,7 +6174,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -6216,7 +6216,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -6258,7 +6258,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -6300,7 +6300,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -6344,7 +6344,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -6388,7 +6388,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -6432,7 +6432,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -6476,7 +6476,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -6520,7 +6520,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -6564,7 +6564,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -6608,7 +6608,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -6652,7 +6652,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -6696,7 +6696,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -6740,7 +6740,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -6784,7 +6784,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -6828,7 +6828,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -6872,7 +6872,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -6916,7 +6916,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -6960,7 +6960,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -7004,7 +7004,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26">
@@ -7034,17 +7034,17 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>16.952332714938272</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="2">A2+1</f>
         <v>2</v>
@@ -7166,7 +7166,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -7208,7 +7208,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -7251,7 +7251,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -7294,7 +7294,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -7337,7 +7337,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -7380,7 +7380,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -7423,7 +7423,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -7467,7 +7467,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -7511,7 +7511,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -7555,7 +7555,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -7599,7 +7599,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -7643,7 +7643,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -7687,7 +7687,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -7731,7 +7731,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -7775,7 +7775,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -7819,7 +7819,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -7863,7 +7863,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -7907,7 +7907,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -7951,7 +7951,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -7995,7 +7995,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -8039,7 +8039,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -8083,7 +8083,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -8127,7 +8127,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26">
@@ -8154,17 +8154,17 @@
       <selection activeCell="J2" sqref="J2:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
-    <col min="10" max="10" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="10" max="10" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>16.59607747230805</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="2">A2+1</f>
         <v>2</v>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -8326,7 +8326,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8408,7 +8408,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8531,7 +8531,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8615,7 +8615,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -8657,7 +8657,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -8699,7 +8699,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -8783,7 +8783,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -8867,7 +8867,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -8993,7 +8993,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -9119,7 +9119,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -9203,7 +9203,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="J26" s="1"/>
@@ -9226,14 +9226,14 @@
       <selection activeCell="D2" sqref="D2:L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>9.0368233800994116</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="1">A2+1</f>
         <v>2</v>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9430,7 +9430,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9471,7 +9471,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9765,7 +9765,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -9891,7 +9891,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -9975,7 +9975,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -10143,7 +10143,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -10185,7 +10185,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10321,14 +10321,14 @@
       <selection activeCell="D2" sqref="D2:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>6.9553753282591408</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="1">A2+1</f>
         <v>2</v>
@@ -10443,7 +10443,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -10567,7 +10567,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -10867,7 +10867,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -11039,7 +11039,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -11211,7 +11211,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -11340,7 +11340,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -11425,18 +11425,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6237D3B-2AD4-4C9E-86F9-1363BE983A03}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11509,1000 +11509,957 @@
       </c>
       <c r="K2" s="1">
         <f>AVERAGE(J2:J25)</f>
-        <v>3.0610571880136503</v>
+        <v>4.6985866152690186</v>
       </c>
       <c r="L2">
         <f>(K2/SUM(C2:C25))*100</f>
-        <v>2.1864694200097503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12.463094470209597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A25" si="1">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <f>B2*2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D25" si="2">D2-(D2/100*C3)</f>
-        <v>99</v>
+        <v>99.9</v>
       </c>
       <c r="E3" s="1">
         <f>(B3*D3+B2*D2)/G3</f>
-        <v>99.333333333333329</v>
+        <v>99.95</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G25" si="3">G2+F3</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1">
         <f>E2-E3</f>
-        <v>0.6666666666666714</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I25" si="4">H2-H3</f>
-        <v>-0.6666666666666714</v>
+        <v>-4.9999999999997158E-2</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J25" si="5">E3-D3</f>
-        <v>0.3333333333333286</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B25" si="6">B3*2</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>98.01</v>
+        <v>99.8001</v>
       </c>
       <c r="E4" s="1">
         <f>(B4*D4+B3*D3+B2*D2)/G4</f>
-        <v>98.577142857142846</v>
+        <v>99.875050000000002</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G4">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H25" si="7">E3-E4</f>
-        <v>0.75619047619048274</v>
+        <f t="shared" ref="H4:H25" si="6">E3-E4</f>
+        <v>7.4950000000001182E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="4"/>
-        <v>-8.9523809523811337E-2</v>
+        <v>-2.4950000000004025E-2</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="5"/>
-        <v>0.56714285714284074</v>
+        <v>7.4950000000001182E-2</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>96.049800000000005</v>
+        <v>99.700299900000005</v>
       </c>
       <c r="E5" s="1">
         <f>(B5*D5+B4*D4+B3*D3+B2*D2)/G5</f>
-        <v>97.229226666666662</v>
+        <v>99.816799966666665</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="7"/>
-        <v>1.3479161904761838</v>
+        <f t="shared" si="6"/>
+        <v>5.8250033333337115E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="4"/>
-        <v>-0.59172571428570109</v>
+        <v>1.6699966666664068E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="5"/>
-        <v>1.1794266666666573</v>
+        <v>0.11650006666666002</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C13" si="8">C3*2</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>94.128804000000002</v>
+        <v>99.600599600100011</v>
       </c>
       <c r="E6" s="1">
         <f>(B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G6</f>
-        <v>95.629008516129034</v>
+        <v>99.730319820039995</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="7"/>
-        <v>1.6002181505376285</v>
+        <f t="shared" si="6"/>
+        <v>8.6480146626669807E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>-0.25230196006144467</v>
+        <v>-2.8230113293332693E-2</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="5"/>
-        <v>1.5002045161290312</v>
+        <v>0.12972021993998339</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>92.246227919999995</v>
+        <v>99.500999000499917</v>
       </c>
       <c r="E7" s="1">
         <f>(B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G7</f>
-        <v>93.910770753015868</v>
+        <v>99.664799585885703</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="7"/>
-        <v>1.7182377631131658</v>
+        <f t="shared" si="6"/>
+        <v>6.5520234154291757E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>-0.11801961257553728</v>
+        <v>2.0959912472378051E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="5"/>
-        <v>1.6645428330158722</v>
+        <v>0.16380058538578623</v>
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>88.556378803199991</v>
+        <v>99.301997002498922</v>
       </c>
       <c r="E8" s="1">
         <f>(B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G8</f>
-        <v>91.212494494840954</v>
+        <v>99.619449262962362</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="7"/>
-        <v>2.6982762581749142</v>
+        <f t="shared" si="6"/>
+        <v>4.5350322923340514E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>-0.98003849506174845</v>
+        <v>2.0169911230951243E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="5"/>
-        <v>2.656115691640963</v>
+        <v>0.31745226046344044</v>
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="6"/>
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>85.014123651071998</v>
+        <v>99.103393008493924</v>
       </c>
       <c r="E9" s="1">
         <f>(B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G9</f>
-        <v>88.101155404635364</v>
+        <v>99.562109679132533</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="7"/>
-        <v>3.1113390902055897</v>
+        <f t="shared" si="6"/>
+        <v>5.7339583829829621E-2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>-0.41306283203067551</v>
+        <v>-1.1989260906489108E-2</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="5"/>
-        <v>3.087031753563366</v>
+        <v>0.45871667063860855</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="6"/>
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>81.613558705029121</v>
+        <v>98.905186222476942</v>
       </c>
       <c r="E10" s="1">
         <f>(B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G10</f>
-        <v>84.85100911285609</v>
+        <v>99.442669050649684</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>511</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="7"/>
-        <v>3.2501462917792736</v>
+        <f t="shared" si="6"/>
+        <v>0.11944062848284887</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>-0.13880720157368387</v>
+        <v>-6.2101044653019244E-2</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="5"/>
-        <v>3.2374504078269695</v>
+        <v>0.53748282817274173</v>
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="6"/>
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>75.084474008626785</v>
+        <v>98.707375850031994</v>
       </c>
       <c r="E11" s="1">
         <f>(B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G11</f>
-        <v>79.962968083173394</v>
+        <v>99.329547019785423</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>512</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>1023</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="7"/>
-        <v>4.8880410296826966</v>
+        <f t="shared" si="6"/>
+        <v>0.11312203086426109</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>-1.637894737903423</v>
+        <v>6.3185976185877735E-3</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="5"/>
-        <v>4.8784940745466088</v>
+        <v>0.6221711697534289</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="6"/>
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>69.077716087936636</v>
+        <v>98.509961098331928</v>
       </c>
       <c r="E12" s="1">
         <f>(B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G12</f>
-        <v>74.517683255072555</v>
+        <v>99.136703273561054</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1024</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>2047</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="7"/>
-        <v>5.4452848281008386</v>
+        <f t="shared" si="6"/>
+        <v>0.19284374622436928</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>-0.55724379841814198</v>
+        <v>-7.9721715360108192E-2</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="5"/>
-        <v>5.4399671671359187</v>
+        <v>0.62674217522912556</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="6"/>
-        <v>2048</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <v>0.2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>63.551498800901705</v>
+        <v>98.312941176135269</v>
       </c>
       <c r="E13" s="1">
         <f>(B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G13</f>
-        <v>69.033252055526305</v>
+        <v>98.979796207384723</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>2048</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>4095</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="7"/>
-        <v>5.4844311995462505</v>
+        <f t="shared" si="6"/>
+        <v>0.15690706617633055</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>-3.9146371445411887E-2</v>
+        <v>3.5936680048038738E-2</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="5"/>
-        <v>5.4817532546245999</v>
+        <v>0.66685503124945456</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="6"/>
-        <v>4096</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <f>C13</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>58.467378896829565</v>
+        <v>96.346682352612561</v>
       </c>
       <c r="E14" s="1">
         <f>(B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G14</f>
-        <v>63.749670507727274</v>
+        <v>98.750829785230607</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>4096</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>8191</v>
+        <v>46</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="7"/>
-        <v>5.2835815477990309</v>
+        <f t="shared" si="6"/>
+        <v>0.22896642215411589</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>0.20084965174721958</v>
+        <v>-7.2059355977785344E-2</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="5"/>
-        <v>5.2822916108977083</v>
+        <v>2.4041474326180463</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
-        <v>8192</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:C25" si="9">C14</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>53.789988585083201</v>
+        <v>94.419748705560309</v>
       </c>
       <c r="E15" s="1">
         <f>(B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G15</f>
-        <v>58.76952558248157</v>
+        <v>98.404343298856986</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>8192</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>16383</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="7"/>
-        <v>4.9801449252457033</v>
+        <f t="shared" si="6"/>
+        <v>0.34648648637362101</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="4"/>
-        <v>0.3034366225533276</v>
+        <v>-0.11752006421950512</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="5"/>
-        <v>4.9795369973983696</v>
+        <v>3.9845945932966771</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
-        <v>16384</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>49.486789498276543</v>
+        <v>92.531353731449101</v>
       </c>
       <c r="E16" s="1">
         <f>(B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G16</f>
-        <v>54.1280158927445</v>
+        <v>97.594275772317971</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>16384</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>32767</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="7"/>
-        <v>4.6415096897370702</v>
+        <f t="shared" si="6"/>
+        <v>0.81006752653901515</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="4"/>
-        <v>0.33863523550863306</v>
+        <v>-0.46358104016539414</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="5"/>
-        <v>4.6412263944679566</v>
+        <v>5.0629220408688695</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="6"/>
-        <v>32768</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>45.52784633841442</v>
+        <v>90.680726656820113</v>
       </c>
       <c r="E17" s="1">
         <f>(B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G17</f>
-        <v>49.827865500491683</v>
+        <v>96.756269818924281</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>32768</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>65535</v>
+        <v>66</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="7"/>
-        <v>4.3001503922528173</v>
+        <f t="shared" si="6"/>
+        <v>0.83800595339369011</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="4"/>
-        <v>0.34135929748425298</v>
+        <v>-2.7938426854674958E-2</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="5"/>
-        <v>4.3000191620772625</v>
+        <v>6.075543162104168</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="6"/>
-        <v>65536</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>41.885618631341266</v>
+        <v>88.867112123683711</v>
       </c>
       <c r="E18" s="1">
         <f>(B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G18</f>
-        <v>45.856711768417917</v>
+        <v>95.216921975950513</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>65536</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>131071</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="7"/>
-        <v>3.9711537320737662</v>
+        <f t="shared" si="6"/>
+        <v>1.5393478429737684</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="4"/>
-        <v>0.32899666017905105</v>
+        <v>-0.70134188958007826</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="5"/>
-        <v>3.9710931370766502</v>
+        <v>6.3498098522668016</v>
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="6"/>
-        <v>131072</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>38.534769140833966</v>
+        <v>87.089769881210032</v>
       </c>
       <c r="E19" s="1">
         <f>(B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G19</f>
-        <v>42.19572648907539</v>
+        <v>93.890040001299027</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>131072</v>
+        <v>16</v>
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>262143</v>
+        <v>98</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="7"/>
-        <v>3.6609852793425262</v>
+        <f t="shared" si="6"/>
+        <v>1.3268819746514851</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>0.31016845273124005</v>
+        <v>0.21246586832228331</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="5"/>
-        <v>3.6609573482414248</v>
+        <v>6.8002701200889959</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" si="6"/>
-        <v>262144</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>35.451987609567247</v>
+        <v>83.606179085961628</v>
       </c>
       <c r="E20" s="1">
         <f>(B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G20</f>
-        <v>38.823850617978501</v>
+        <v>93.113899554858449</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>262144</v>
+        <v>8</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>524287</v>
+        <v>106</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="7"/>
-        <v>3.3718758710968899</v>
+        <f t="shared" si="6"/>
+        <v>0.77614044644057856</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="4"/>
-        <v>0.28910940824563625</v>
+        <v>0.55074152821090649</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="5"/>
-        <v>3.3718630084112533</v>
+        <v>9.5077204688968209</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="6"/>
-        <v>524288</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>32.615828600801869</v>
+        <v>80.261931922523161</v>
       </c>
       <c r="E21" s="1">
         <f>(B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G21</f>
-        <v>35.719836649171796</v>
+        <v>92.212007089431438</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>524288</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>1048575</v>
+        <v>114</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>3.1040139688067043</v>
+        <f t="shared" si="6"/>
+        <v>0.90189246542701085</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="4"/>
-        <v>0.26786190229018558</v>
+        <v>-0.12575201898643229</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="5"/>
-        <v>3.1040080483699271</v>
+        <v>11.950075166908277</v>
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="6"/>
-        <v>1048576</v>
+        <v>16</v>
       </c>
       <c r="C22">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>30.006562312737721</v>
+        <v>77.051454645622229</v>
       </c>
       <c r="E22" s="1">
         <f>(B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G22</f>
-        <v>32.863198118803346</v>
+        <v>90.346092942501059</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>1048576</v>
+        <v>16</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>2097151</v>
+        <v>130</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="7"/>
-        <v>2.8566385303684498</v>
+        <f t="shared" si="6"/>
+        <v>1.865914146930379</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="4"/>
-        <v>0.24737543843825449</v>
+        <v>-0.9640216815033682</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="5"/>
-        <v>2.8566358060656256</v>
+        <v>13.29463829687883</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="6"/>
-        <v>2097152</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>27.606037327718703</v>
+        <v>73.969396459797338</v>
       </c>
       <c r="E23" s="1">
         <f>(B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G23</f>
-        <v>30.234617096558477</v>
+        <v>88.55138647864311</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>2097152</v>
+        <v>16</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>4194303</v>
+        <v>146</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="7"/>
-        <v>2.6285810222448696</v>
+        <f t="shared" si="6"/>
+        <v>1.7947064638579491</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="4"/>
-        <v>0.22805750812358028</v>
+        <v>7.1207683072429973E-2</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="5"/>
-        <v>2.6285797688397743</v>
+        <v>14.581990018845772</v>
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B24">
-        <f t="shared" si="6"/>
-        <v>4194304</v>
+        <v>32</v>
       </c>
       <c r="C24">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>25.397554341501205</v>
+        <v>71.010620601405449</v>
       </c>
       <c r="E24" s="1">
         <f>(B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G24</f>
-        <v>27.816085430718395</v>
+        <v>85.397990365881284</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>4194304</v>
+        <v>32</v>
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>8388607</v>
+        <v>178</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="7"/>
-        <v>2.4185316658400815</v>
+        <f t="shared" si="6"/>
+        <v>3.1533961127618255</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="4"/>
-        <v>0.21004935640478806</v>
+        <v>-1.3586896489038764</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="5"/>
-        <v>2.4185310892171898</v>
+        <v>14.387369764475835</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B25">
-        <f t="shared" si="6"/>
-        <v>8388608</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>23.365749994181108</v>
+        <v>68.170195777349235</v>
       </c>
       <c r="E25" s="1">
         <f>(B25*D25+B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G25</f>
-        <v>25.590917579819415</v>
+        <v>82.772802619057359</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>8388608</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>16777215</v>
+        <v>210</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="7"/>
-        <v>2.2251678508989805</v>
+        <f t="shared" si="6"/>
+        <v>2.6251877468239257</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="4"/>
-        <v>0.193363814941101</v>
+        <v>0.52820836593789977</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="5"/>
-        <v>2.2251675856383066</v>
+        <v>14.602606841708123</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -12510,7 +12467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>11</v>
       </c>
@@ -12518,7 +12475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>12</v>
       </c>
@@ -12526,7 +12483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>13</v>
       </c>
@@ -12534,7 +12491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>14</v>
       </c>
@@ -12552,18 +12509,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60420A63-E466-1245-B710-6595DDE06513}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12601,7 +12558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12643,7 +12600,7 @@
         <v>366.28268122131618</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="1">A2+1</f>
         <v>2</v>
@@ -12684,7 +12641,7 @@
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -12725,7 +12682,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -12766,7 +12723,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -12807,7 +12764,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -12848,7 +12805,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -12889,7 +12846,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -12930,7 +12887,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -12971,7 +12928,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -13012,7 +12969,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -13053,7 +13010,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -13094,7 +13051,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -13135,7 +13092,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -13176,7 +13133,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -13217,7 +13174,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -13258,7 +13215,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -13299,7 +13256,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -13340,7 +13297,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -13381,7 +13338,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -13422,13 +13379,13 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B13:B31" si="7">B12*2</f>
+        <f t="shared" ref="B22:B31" si="7">B12*2</f>
         <v>40</v>
       </c>
       <c r="C22">
@@ -13464,7 +13421,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -13506,7 +13463,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -13548,7 +13505,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -13590,7 +13547,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -13615,7 +13572,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -13640,7 +13597,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -13668,7 +13625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -13696,7 +13653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -13727,7 +13684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -13752,13 +13709,13 @@
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B32">
-        <f>B2</f>
+        <f t="shared" ref="B32:B40" si="10">B2</f>
         <v>20</v>
       </c>
       <c r="C32">
@@ -13777,13 +13734,13 @@
         <v>820</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B33">
-        <f>B3</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C33">
@@ -13802,13 +13759,13 @@
         <v>840</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B34">
-        <f>B4</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C34">
@@ -13827,13 +13784,13 @@
         <v>860</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B35">
-        <f>B5</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C35">
@@ -13852,13 +13809,13 @@
         <v>880</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B36">
-        <f>B6</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C36">
@@ -13877,13 +13834,13 @@
         <v>900</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37">
-        <f>B7</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C37">
@@ -13902,13 +13859,13 @@
         <v>920</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38">
-        <f>B8</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C38">
@@ -13927,13 +13884,13 @@
         <v>940</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39">
-        <f>B9</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C39">
@@ -13952,13 +13909,13 @@
         <v>960</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40">
-        <f>B10</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C40">
@@ -13977,13 +13934,13 @@
         <v>980</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B33:B91" si="10">B11*2</f>
+        <f t="shared" ref="B41:B91" si="11">B11*2</f>
         <v>40</v>
       </c>
       <c r="C41">
@@ -14002,13 +13959,13 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C42">
@@ -14027,13 +13984,13 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C43">
@@ -14052,13 +14009,13 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C44">
@@ -14077,13 +14034,13 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C45">
@@ -14102,13 +14059,13 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C46">
@@ -14127,13 +14084,13 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C47">
@@ -14152,13 +14109,13 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C48">
@@ -14177,13 +14134,13 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C49">
@@ -14202,13 +14159,13 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C50">
@@ -14227,13 +14184,13 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C51">
@@ -14252,13 +14209,13 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C52">
@@ -14277,13 +14234,13 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C53">
@@ -14302,13 +14259,13 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C54">
@@ -14327,13 +14284,13 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C55">
@@ -14352,13 +14309,13 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C56">
@@ -14377,13 +14334,13 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C57">
@@ -14402,13 +14359,13 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C58">
@@ -14427,13 +14384,13 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C59">
@@ -14452,13 +14409,13 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="B60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C60">
@@ -14477,13 +14434,13 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="B61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80</v>
       </c>
       <c r="C61">
@@ -14502,13 +14459,13 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
       <c r="B62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C62">
@@ -14527,13 +14484,13 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="B63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C63">
@@ -14552,13 +14509,13 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="B64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C64">
@@ -14577,13 +14534,13 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C65">
@@ -14602,13 +14559,13 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C66">
@@ -14627,20 +14584,20 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A91" si="11">A66+1</f>
+        <f t="shared" ref="A67:A91" si="12">A66+1</f>
         <v>66</v>
       </c>
       <c r="B67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" ref="D67:D91" si="12">D66-(D66/100*C67)</f>
+        <f t="shared" ref="D67:D91" si="13">D66-(D66/100*C67)</f>
         <v>52.034052265030709</v>
       </c>
       <c r="F67">
@@ -14652,20 +14609,20 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
+        <f t="shared" si="12"/>
+        <v>67</v>
+      </c>
+      <c r="B68">
         <f t="shared" si="11"/>
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>51.513711742380401</v>
       </c>
       <c r="F68">
@@ -14677,20 +14634,20 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="B69">
         <f t="shared" si="11"/>
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50.998574624956596</v>
       </c>
       <c r="F69">
@@ -14702,20 +14659,20 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="B70">
         <f t="shared" si="11"/>
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>50.488588878707027</v>
       </c>
       <c r="F70">
@@ -14727,20 +14684,20 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="B71">
         <f t="shared" si="11"/>
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49.983702989919955</v>
       </c>
       <c r="F71">
@@ -14752,20 +14709,20 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="B72">
         <f t="shared" si="11"/>
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>49.483865960020758</v>
       </c>
       <c r="F72">
@@ -14777,20 +14734,20 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="B73">
         <f t="shared" si="11"/>
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48.989027300420553</v>
       </c>
       <c r="F73">
@@ -14802,20 +14759,20 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="B74">
         <f t="shared" si="11"/>
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48.499137027416346</v>
       </c>
       <c r="F74">
@@ -14827,20 +14784,20 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="B75">
         <f t="shared" si="11"/>
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>48.01414565714218</v>
       </c>
       <c r="F75">
@@ -14852,20 +14809,20 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="11"/>
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47.534004200570756</v>
       </c>
       <c r="F76">
@@ -14877,20 +14834,20 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="11"/>
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>47.058664158565051</v>
       </c>
       <c r="F77">
@@ -14902,20 +14859,20 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="11"/>
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.588077516979403</v>
       </c>
       <c r="F78">
@@ -14927,20 +14884,20 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>46.12219674180961</v>
       </c>
       <c r="F79">
@@ -14952,20 +14909,20 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="11"/>
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.660974774391512</v>
       </c>
       <c r="F80">
@@ -14977,20 +14934,20 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="11"/>
         <v>80</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.204365026647594</v>
       </c>
       <c r="F81">
@@ -15002,20 +14959,20 @@
         <v>3460</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="11"/>
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.752321376381119</v>
       </c>
       <c r="F82">
@@ -15027,20 +14984,20 @@
         <v>3620</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="11"/>
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.30479816261731</v>
       </c>
       <c r="F83">
@@ -15052,20 +15009,20 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="11"/>
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43.861750180991137</v>
       </c>
       <c r="F84">
@@ -15077,20 +15034,20 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="11"/>
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43.423132679181229</v>
       </c>
       <c r="F85">
@@ -15102,20 +15059,20 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
+        <f t="shared" si="12"/>
+        <v>85</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="11"/>
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.988901352389419</v>
       </c>
       <c r="F86">
@@ -15127,20 +15084,20 @@
         <v>4260</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
+        <f t="shared" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="11"/>
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.559012338865529</v>
       </c>
       <c r="F87">
@@ -15152,20 +15109,20 @@
         <v>4420</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="11"/>
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.133422215476877</v>
       </c>
       <c r="F88">
@@ -15177,20 +15134,20 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="11"/>
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.712087993322108</v>
       </c>
       <c r="F89">
@@ -15202,57 +15159,57 @@
         <v>4740</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
+        <f t="shared" si="12"/>
+        <v>89</v>
+      </c>
+      <c r="B90">
         <f t="shared" si="11"/>
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" s="1">
+        <f t="shared" si="13"/>
+        <v>41.294967113388886</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ref="F90:F91" si="14">B90</f>
+        <v>160</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ref="G90:G91" si="15">G89+F90</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
         <f t="shared" si="12"/>
-        <v>41.294967113388886</v>
-      </c>
-      <c r="F90">
-        <f t="shared" ref="F90:F91" si="13">B90</f>
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
-      <c r="G90">
-        <f t="shared" ref="G90:G91" si="14">G89+F90</f>
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A91">
-        <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="10"/>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="13"/>
+        <v>40.882017442254998</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="14"/>
         <v>160</v>
       </c>
-      <c r="C91">
-        <v>1</v>
-      </c>
-      <c r="D91" s="1">
-        <f t="shared" si="12"/>
-        <v>40.882017442254998</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="13"/>
-        <v>160</v>
-      </c>
       <c r="G91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5060</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -15260,7 +15217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>11</v>
       </c>
@@ -15268,7 +15225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
         <v>12</v>
       </c>
@@ -15276,7 +15233,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D95" t="s">
         <v>13</v>
       </c>
@@ -15284,7 +15241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E96" t="s">
         <v>14</v>
       </c>
@@ -15292,7 +15249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="5:11" x14ac:dyDescent="0.2">
       <c r="F97" t="s">
         <v>26</v>
       </c>
@@ -15312,7 +15269,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E98" t="s">
         <v>24</v>
       </c>
@@ -15339,7 +15296,7 @@
         <v>3786.5739130450565</v>
       </c>
     </row>
-    <row r="99" spans="5:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E99" t="s">
         <v>25</v>
       </c>

--- a/PerfectScale.xlsx
+++ b/PerfectScale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knoleli\Documents\GitHub\SmartRisk-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C672DE3-7BFE-4229-B73D-3F0374E48CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0DA382-E7C8-4E05-B335-A8D4CAA11E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="12645" firstSheet="1" activeTab="7" xr2:uid="{15CF759D-6B53-47AC-A4FA-F1174DCAA1CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="7" xr2:uid="{15CF759D-6B53-47AC-A4FA-F1174DCAA1CB}"/>
   </bookViews>
   <sheets>
     <sheet name="SC3^2 0.74" sheetId="9" r:id="rId1"/>
@@ -906,73 +906,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9999999999997158E-2</c:v>
+                  <c:v>0.10000000000000853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4950000000001182E-2</c:v>
+                  <c:v>0.19973333333334153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11650006666666002</c:v>
+                  <c:v>0.29920060000000603</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12972021993998339</c:v>
+                  <c:v>0.33200199893333604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16380058538578623</c:v>
+                  <c:v>0.39780509440240053</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31745226046344044</c:v>
+                  <c:v>0.47665046273471035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.45871667063860855</c:v>
+                  <c:v>0.56188535898557745</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53748282817274173</c:v>
+                  <c:v>0.56932657732308201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.6221711697534289</c:v>
+                  <c:v>0.61291911035738167</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.62674217522912556</c:v>
+                  <c:v>0.67445648029980987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.66685503124945456</c:v>
+                  <c:v>0.74613624768873876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4041474326180463</c:v>
+                  <c:v>0.73249554368806002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9845945932966771</c:v>
+                  <c:v>0.75906653994574924</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0629220408688695</c:v>
+                  <c:v>0.80717025622158189</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.075543162104168</c:v>
+                  <c:v>0.86809014674373941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.3498098522668016</c:v>
+                  <c:v>0.83855796559940643</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.8002701200889959</c:v>
+                  <c:v>0.85273080141372759</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.5077204688968209</c:v>
+                  <c:v>0.89106985121392768</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.950075166908277</c:v>
+                  <c:v>0.94412115466086277</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.29463829687883</c:v>
+                  <c:v>0.90349612600742546</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14.581990018845772</c:v>
+                  <c:v>0.90915332721478137</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14.387369764475835</c:v>
+                  <c:v>0.94078551376635744</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>14.602606841708123</c:v>
+                  <c:v>0.98840052405351742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11425,8 +11425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6237D3B-2AD4-4C9E-86F9-1363BE983A03}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11509,11 +11509,11 @@
       </c>
       <c r="K2" s="1">
         <f>AVERAGE(J2:J25)</f>
-        <v>4.6985866152690186</v>
+        <v>0.64188554227448036</v>
       </c>
       <c r="L2">
         <f>(K2/SUM(C2:C25))*100</f>
-        <v>12.463094470209597</v>
+        <v>13.954033527706091</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -11525,15 +11525,15 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" ref="D3:D25" si="2">D2-(D2/100*C3)</f>
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="E3" s="1">
         <f>(B3*D3+B2*D2)/G3</f>
-        <v>99.95</v>
+        <v>99.9</v>
       </c>
       <c r="F3">
         <f t="shared" si="0"/>
@@ -11545,15 +11545,15 @@
       </c>
       <c r="H3" s="1">
         <f>E2-E3</f>
-        <v>4.9999999999997158E-2</v>
+        <v>9.9999999999994316E-2</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" ref="I3:I25" si="4">H2-H3</f>
-        <v>-4.9999999999997158E-2</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J25" si="5">E3-D3</f>
-        <v>4.9999999999997158E-2</v>
+        <v>0.10000000000000853</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -11563,38 +11563,38 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="2"/>
-        <v>99.8001</v>
+        <v>99.600399999999993</v>
       </c>
       <c r="E4" s="1">
         <f>(B4*D4+B3*D3+B2*D2)/G4</f>
-        <v>99.875050000000002</v>
+        <v>99.800133333333335</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H25" si="6">E3-E4</f>
-        <v>7.4950000000001182E-2</v>
+        <v>9.9866666666670767E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="4"/>
-        <v>-2.4950000000004025E-2</v>
+        <v>1.3333333332354869E-4</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="5"/>
-        <v>7.4950000000001182E-2</v>
+        <v>0.19973333333334153</v>
       </c>
       <c r="K4" s="1"/>
     </row>
@@ -11604,38 +11604,38 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="2"/>
-        <v>99.700299900000005</v>
+        <v>99.401199199999994</v>
       </c>
       <c r="E5" s="1">
         <f>(B5*D5+B4*D4+B3*D3+B2*D2)/G5</f>
-        <v>99.816799966666665</v>
+        <v>99.7003998</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="6"/>
-        <v>5.8250033333337115E-2</v>
+        <v>9.9733533333335345E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="4"/>
-        <v>1.6699966666664068E-2</v>
+        <v>1.3313333333542232E-4</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="5"/>
-        <v>0.11650006666666002</v>
+        <v>0.29920060000000603</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -11645,38 +11645,38 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="2"/>
-        <v>99.600599600100011</v>
+        <v>99.202396801599988</v>
       </c>
       <c r="E6" s="1">
         <f>(B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G6</f>
-        <v>99.730319820039995</v>
+        <v>99.534398800533324</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="6"/>
-        <v>8.6480146626669807E-2</v>
+        <v>0.16600099946667513</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="4"/>
-        <v>-2.8230113293332693E-2</v>
+        <v>-6.6267466133339781E-2</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="5"/>
-        <v>0.12972021993998339</v>
+        <v>0.33200199893333604</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -11686,38 +11686,38 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="2"/>
-        <v>99.500999000499917</v>
+        <v>99.003992007996786</v>
       </c>
       <c r="E7" s="1">
         <f>(B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G7</f>
-        <v>99.664799585885703</v>
+        <v>99.401797102399186</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="6"/>
-        <v>6.5520234154291757E-2</v>
+        <v>0.13260169813413825</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="4"/>
-        <v>2.0959912472378051E-2</v>
+        <v>3.3399301332536879E-2</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="5"/>
-        <v>0.16380058538578623</v>
+        <v>0.39780509440240053</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -11734,11 +11734,11 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="2"/>
-        <v>99.301997002498922</v>
+        <v>98.805984023980798</v>
       </c>
       <c r="E8" s="1">
         <f>(B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G8</f>
-        <v>99.619449262962362</v>
+        <v>99.282634486715509</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -11746,19 +11746,19 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="6"/>
-        <v>4.5350322923340514E-2</v>
+        <v>0.11916261568367759</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="4"/>
-        <v>2.0169911230951243E-2</v>
+        <v>1.343908245046066E-2</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="5"/>
-        <v>0.31745226046344044</v>
+        <v>0.47665046273471035</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -11775,11 +11775,11 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="2"/>
-        <v>99.103393008493924</v>
+        <v>98.608372055932833</v>
       </c>
       <c r="E9" s="1">
         <f>(B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G9</f>
-        <v>99.562109679132533</v>
+        <v>99.17025741491841</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -11787,19 +11787,19 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="6"/>
-        <v>5.7339583829829621E-2</v>
+        <v>0.11237707179709844</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1989260906489108E-2</v>
+        <v>6.7855438865791484E-3</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="5"/>
-        <v>0.45871667063860855</v>
+        <v>0.56188535898557745</v>
       </c>
       <c r="K9" s="1"/>
     </row>
@@ -11816,11 +11816,11 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="2"/>
-        <v>98.905186222476942</v>
+        <v>98.411155311820963</v>
       </c>
       <c r="E10" s="1">
         <f>(B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G10</f>
-        <v>99.442669050649684</v>
+        <v>98.980481889144045</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -11828,19 +11828,19 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="6"/>
-        <v>0.11944062848284887</v>
+        <v>0.18977552577436541</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>-6.2101044653019244E-2</v>
+        <v>-7.7398453977266968E-2</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="5"/>
-        <v>0.53748282817274173</v>
+        <v>0.56932657732308201</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -11857,11 +11857,11 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
-        <v>98.707375850031994</v>
+        <v>98.214333001197318</v>
       </c>
       <c r="E11" s="1">
         <f>(B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G11</f>
-        <v>99.329547019785423</v>
+        <v>98.827252111554699</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -11869,19 +11869,19 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="6"/>
-        <v>0.11312203086426109</v>
+        <v>0.15322977758934542</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>6.3185976185877735E-3</v>
+        <v>3.6545748185019988E-2</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="5"/>
-        <v>0.6221711697534289</v>
+        <v>0.61291911035738167</v>
       </c>
       <c r="K11" s="1"/>
     </row>
@@ -11891,38 +11891,38 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0.2</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
-        <v>98.509961098331928</v>
+        <v>98.017904335194928</v>
       </c>
       <c r="E12" s="1">
         <f>(B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G12</f>
-        <v>99.136703273561054</v>
+        <v>98.692360815494737</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="6"/>
-        <v>0.19284374622436928</v>
+        <v>0.13489129605996197</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>-7.9721715360108192E-2</v>
+        <v>1.8338481529383444E-2</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="5"/>
-        <v>0.62674217522912556</v>
+        <v>0.67445648029980987</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -11932,38 +11932,38 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0.2</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
-        <v>98.312941176135269</v>
+        <v>97.82186852652454</v>
       </c>
       <c r="E13" s="1">
         <f>(B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G13</f>
-        <v>98.979796207384723</v>
+        <v>98.568004774213279</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="6"/>
-        <v>0.15690706617633055</v>
+        <v>0.12435604128145883</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>3.5936680048038738E-2</v>
+        <v>1.0535254778503145E-2</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="5"/>
-        <v>0.66685503124945456</v>
+        <v>0.74613624768873876</v>
       </c>
       <c r="K13" s="1"/>
     </row>
@@ -11973,38 +11973,38 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
-        <v>96.346682352612561</v>
+        <v>97.626224789471493</v>
       </c>
       <c r="E14" s="1">
         <f>(B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G14</f>
-        <v>98.750829785230607</v>
+        <v>98.358720333159553</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="6"/>
-        <v>0.22896642215411589</v>
+        <v>0.20928444105372535</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>-7.2059355977785344E-2</v>
+        <v>-8.4928399772266516E-2</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="5"/>
-        <v>2.4041474326180463</v>
+        <v>0.73249554368806002</v>
       </c>
       <c r="K14" s="1"/>
     </row>
@@ -12014,38 +12014,38 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="2"/>
-        <v>94.419748705560309</v>
+        <v>97.430972339892548</v>
       </c>
       <c r="E15" s="1">
         <f>(B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G15</f>
-        <v>98.404343298856986</v>
+        <v>98.190038879838298</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="6"/>
-        <v>0.34648648637362101</v>
+        <v>0.1686814533212555</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="4"/>
-        <v>-0.11752006421950512</v>
+        <v>4.0602987732469842E-2</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="5"/>
-        <v>3.9845945932966771</v>
+        <v>0.75906653994574924</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -12058,15 +12058,15 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="2"/>
-        <v>92.531353731449101</v>
+        <v>97.236110395212762</v>
       </c>
       <c r="E16" s="1">
         <f>(B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G16</f>
-        <v>97.594275772317971</v>
+        <v>98.043280651434344</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -12074,19 +12074,19 @@
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="6"/>
-        <v>0.81006752653901515</v>
+        <v>0.14675822840395369</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="4"/>
-        <v>-0.46358104016539414</v>
+        <v>2.1923224917301809E-2</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="5"/>
-        <v>5.0629220408688695</v>
+        <v>0.80717025622158189</v>
       </c>
       <c r="K16" s="1"/>
     </row>
@@ -12099,15 +12099,15 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="2"/>
-        <v>90.680726656820113</v>
+        <v>97.041638174422332</v>
       </c>
       <c r="E17" s="1">
         <f>(B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G17</f>
-        <v>96.756269818924281</v>
+        <v>97.909728321166071</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -12115,19 +12115,19 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="6"/>
-        <v>0.83800595339369011</v>
+        <v>0.13355233026827307</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="4"/>
-        <v>-2.7938426854674958E-2</v>
+        <v>1.3205898135680627E-2</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="5"/>
-        <v>6.075543162104168</v>
+        <v>0.86809014674373941</v>
       </c>
       <c r="K17" s="1"/>
     </row>
@@ -12140,15 +12140,15 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>88.867112123683711</v>
+        <v>96.847554898073483</v>
       </c>
       <c r="E18" s="1">
         <f>(B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G18</f>
-        <v>95.216921975950513</v>
+        <v>97.686112863672889</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -12156,19 +12156,19 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="6"/>
-        <v>1.5393478429737684</v>
+        <v>0.22361545749318168</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="4"/>
-        <v>-0.70134188958007826</v>
+        <v>-9.0063127224908612E-2</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="5"/>
-        <v>6.3498098522668016</v>
+        <v>0.83855796559940643</v>
       </c>
       <c r="K18" s="1"/>
     </row>
@@ -12181,15 +12181,15 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>87.089769881210032</v>
+        <v>96.65385978827733</v>
       </c>
       <c r="E19" s="1">
         <f>(B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G19</f>
-        <v>93.890040001299027</v>
+        <v>97.506590589691058</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
@@ -12197,19 +12197,19 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="6"/>
-        <v>1.3268819746514851</v>
+        <v>0.1795222739818314</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>0.21246586832228331</v>
+        <v>4.4093183511350276E-2</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="5"/>
-        <v>6.8002701200889959</v>
+        <v>0.85273080141372759</v>
       </c>
       <c r="K19" s="1"/>
     </row>
@@ -12219,38 +12219,38 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>83.606179085961628</v>
+        <v>96.460552068700778</v>
       </c>
       <c r="E20" s="1">
         <f>(B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G20</f>
-        <v>93.113899554858449</v>
+        <v>97.351621919914706</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="6"/>
-        <v>0.77614044644057856</v>
+        <v>0.15496866977635193</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="4"/>
-        <v>0.55074152821090649</v>
+        <v>2.4553604205479473E-2</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="5"/>
-        <v>9.5077204688968209</v>
+        <v>0.89106985121392768</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -12260,38 +12260,38 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>80.261931922523161</v>
+        <v>96.267630964563381</v>
       </c>
       <c r="E21" s="1">
         <f>(B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G21</f>
-        <v>92.212007089431438</v>
+        <v>97.211752119224244</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="6"/>
-        <v>0.90189246542701085</v>
+        <v>0.1398698006904624</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="4"/>
-        <v>-0.12575201898643229</v>
+        <v>1.5098869085889532E-2</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="5"/>
-        <v>11.950075166908277</v>
+        <v>0.94412115466086277</v>
       </c>
       <c r="K21" s="1"/>
     </row>
@@ -12301,38 +12301,38 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>77.051454645622229</v>
+        <v>96.075095702634258</v>
       </c>
       <c r="E22" s="1">
         <f>(B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G22</f>
-        <v>90.346092942501059</v>
+        <v>96.978591828641683</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="6"/>
-        <v>1.865914146930379</v>
+        <v>0.23316029058256049</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="4"/>
-        <v>-0.9640216815033682</v>
+        <v>-9.3290489892098094E-2</v>
       </c>
       <c r="J22" s="1">
         <f t="shared" si="5"/>
-        <v>13.29463829687883</v>
+        <v>0.90349612600742546</v>
       </c>
       <c r="K22" s="1"/>
     </row>
@@ -12342,38 +12342,38 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>73.969396459797338</v>
+        <v>95.882945511228982</v>
       </c>
       <c r="E23" s="1">
         <f>(B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G23</f>
-        <v>88.55138647864311</v>
+        <v>96.792098838443763</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="6"/>
-        <v>1.7947064638579491</v>
+        <v>0.18649299019791954</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="4"/>
-        <v>7.1207683072429973E-2</v>
+        <v>4.6667300384640953E-2</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="5"/>
-        <v>14.581990018845772</v>
+        <v>0.90915332721478137</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -12386,15 +12386,15 @@
         <v>32</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>71.010620601405449</v>
+        <v>95.691179620206526</v>
       </c>
       <c r="E24" s="1">
         <f>(B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G24</f>
-        <v>85.397990365881284</v>
+        <v>96.631965133972884</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -12402,19 +12402,19 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="6"/>
-        <v>3.1533961127618255</v>
+        <v>0.16013370447087993</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="4"/>
-        <v>-1.3586896489038764</v>
+        <v>2.6359285727039605E-2</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="5"/>
-        <v>14.387369764475835</v>
+        <v>0.94078551376635744</v>
       </c>
       <c r="K24" s="1"/>
     </row>
@@ -12427,15 +12427,15 @@
         <v>32</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>68.170195777349235</v>
+        <v>95.499797260966119</v>
       </c>
       <c r="E25" s="1">
         <f>(B25*D25+B24*D24+B23*D23+B22*D22+B21*D21+B20*D20+B19*D19+B18*D18+B17*D17+B16*D16+B15*D15+B14*D14+B13*D13+B12*D12+B11*D11+B10*D10+B9*D9+B8*D8+B7*D7+B6*D6+B5*D5+B4*D4+B3*D3+B2*D2)/G25</f>
-        <v>82.772802619057359</v>
+        <v>96.488197785019636</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -12443,19 +12443,19 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="6"/>
-        <v>2.6251877468239257</v>
+        <v>0.14376734895324716</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="4"/>
-        <v>0.52820836593789977</v>
+        <v>1.6366355517632769E-2</v>
       </c>
       <c r="J25" s="1">
         <f t="shared" si="5"/>
-        <v>14.602606841708123</v>
+        <v>0.98840052405351742</v>
       </c>
       <c r="K25" s="1"/>
     </row>
